--- a/data/hotels_by_city/Houston/Houston_shard_235.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_235.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="808">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55667-d1724203-Reviews-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
   </si>
   <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Fairfield-Inn-Suites-By-Marriott-Houston-ConroeWoodlands.h3507451.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2304 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r567200695-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55667</t>
+  </si>
+  <si>
+    <t>1724203</t>
+  </si>
+  <si>
+    <t>567200695</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Spring Break</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy. Shawn was very friendly at check in and all of the staff we encountered during our stay were nice and helpful. The television in the room wasn't very large but my daughter and I enjoyed our time there.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r566925375-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>566925375</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>Awesome Service</t>
+  </si>
+  <si>
+    <t>The service by the Asst Gen’l Manager Michael Anderson is over-the-top. This guy went way out of his way for us and as we watched, many other guests to welcome and ensure our stays were perfect. Great, clean hotel with excellent staff that “get it.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r564404563-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>564404563</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Outstanding Value</t>
+  </si>
+  <si>
+    <t>Staying in six different hotels this week gives some context for comparing this Fairfield Inn to other comparable accommodations.  This was the best Fairfield Inn I’ve experienced.  The staff was efficient and cheerful.  The suite of rooms was tastefully decorated, immaculate, and quiet.  Breakfast options were plentiful, diverse and well presented.  The breakfast room was large enough to handle a big group easily.  What is amazing is that this hotel was the most reasonable one of the week and our favorite!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r551366864-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>551366864</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Very clean, but....</t>
+  </si>
+  <si>
+    <t>Clean hotel with great staff. The lobby had lots to offer guests with juice &amp; fresh coffee at all hours. The fitness center was clean &amp; nice. But.... the beds were so squishy &amp; uncomfortable! Felt like bamboo or sticks made into a bed.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r547824339-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>547824339</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>Nice and convenient location. Close to shopping and restaurants. Good as a hub if you are doing business in that area. The staff is extremely nice and service minded and everything is working. Wi-Fi is very good. Breakfast is ok but nothing to get exited about.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r543862640-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>543862640</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Nice place to rest up</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and the staff are friendly. The rooms are comfortable. The free breakfast is a little above average with good selection and plenty of seats. It is a little hard to get in to as the entrance is not well marked in the dark off of the access room</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r527574057-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>527574057</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>i had a great time here everybody was friendly the staff were great they did an amazing job i would most definately come back when i get the chance the rooms were amazing food was good pool was fun cfleaning servise was great</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r521566130-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>521566130</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Came here for my cousins wedding but ended up being stuck here due to Hurricaine Harvey.</t>
+  </si>
+  <si>
+    <t>The staff here are #1!!!! Couldnt ask for better people running this hotel, from  Michael, Laura, Sarah and the whole crew. Everyone made every single effort to help in ANY way they could. Laura even went to Sams club tobuy breakfast for the hotel because Cisco was bringing all food products to all the shelters, I cant say enough about how kind, generous, and just people oriented this crew is at Fairfield Inn in Conroe. I would definately stay at this hotel again anytime. The place is extremely clean, linens and beds soft, just a fabulous place. I guess if one HAS to be STUCK somewhere, I couldnt have asked for a BETTER place. Please give these guys and gals a raise, They have literally gone ABOVE and BEYOND what  their job detail describes. 5 thumbs up!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff here are #1!!!! Couldnt ask for better people running this hotel, from  Michael, Laura, Sarah and the whole crew. Everyone made every single effort to help in ANY way they could. Laura even went to Sams club tobuy breakfast for the hotel because Cisco was bringing all food products to all the shelters, I cant say enough about how kind, generous, and just people oriented this crew is at Fairfield Inn in Conroe. I would definately stay at this hotel again anytime. The place is extremely clean, linens and beds soft, just a fabulous place. I guess if one HAS to be STUCK somewhere, I couldnt have asked for a BETTER place. Please give these guys and gals a raise, They have literally gone ABOVE and BEYOND what  their job detail describes. 5 thumbs up!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r509320005-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>509320005</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Bait and Switch?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why go through the trouble of reserving a room when you get there and they don't have the room you reserved? They put us in another room one night and were able to switch to our reserved King Suite the next night. Unfortunately, the bed in that room wasn't fit for a homeless person. We tossed and turned for 2 nights. Not sure what to say? The place was clean and friendly but, the experience was not the best. The room could also use some plumbing with the shower head coming out of the wall! Won't be returning. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r489445520-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>489445520</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>you may get burned</t>
+  </si>
+  <si>
+    <t>We had difficulty with the shower in 204.  Water was too hot.  They moved us to 211 but the same thing happened.  The water started off cool, but 1 minute later, it was hot.  I had the water barely on, which is the "cold" part of this fixture.  I attempted to try to shower anyway, but the water continued to get hotter and I had to jump back.  This is insane. I spend $120.00 total for this room, and none of us were able to shower.  I suggest you find a different place to stay unless you just like to spend a large amount of money on a room and you cannot even use the shower.  This is dangerous to customers!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Fairfield I, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>We had difficulty with the shower in 204.  Water was too hot.  They moved us to 211 but the same thing happened.  The water started off cool, but 1 minute later, it was hot.  I had the water barely on, which is the "cold" part of this fixture.  I attempted to try to shower anyway, but the water continued to get hotter and I had to jump back.  This is insane. I spend $120.00 total for this room, and none of us were able to shower.  I suggest you find a different place to stay unless you just like to spend a large amount of money on a room and you cannot even use the shower.  This is dangerous to customers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r479434481-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>479434481</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>LocationLocation</t>
+  </si>
+  <si>
+    <t>When you have meetings in the Woodlands-Conroe area...This has been a great place for us these past few years ....If you work in the Medical Field and have relationships with the Hospitals, this is a perfect place to stay...St Lukes right across the street to the South and the New Methodist Hospital is just on  the other side of the Freeway...Enjoy...MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>When you have meetings in the Woodlands-Conroe area...This has been a great place for us these past few years ....If you work in the Medical Field and have relationships with the Hospitals, this is a perfect place to stay...St Lukes right across the street to the South and the New Methodist Hospital is just on  the other side of the Freeway...Enjoy...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r465765989-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>465765989</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>Good but not great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This property is new and clean. It's right off I45 which can cause some noise depending on your room. The two issues I had was the hot water in the shower was Luke warm both days. Second the Wifi was the slowest I've seen at Marriott properties. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r450502000-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>450502000</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>In town for 2 nights for wedding at Madera Estates, this hotel was very close to many shops/restaurants in addition to being less than 5 minutes from venue &amp; having easy access to I-45.Front desk staff was very friendly &amp; hotel was nicely maintained. Room on 2nd floor was quiet, but bed was a little too soft for my taste. Hot water was in short supply during morning on a cold Sunday, I'm guessing because hotel appeared full.Hot breakfast was better than average, coffee was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Tseverson3010, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>In town for 2 nights for wedding at Madera Estates, this hotel was very close to many shops/restaurants in addition to being less than 5 minutes from venue &amp; having easy access to I-45.Front desk staff was very friendly &amp; hotel was nicely maintained. Room on 2nd floor was quiet, but bed was a little too soft for my taste. Hot water was in short supply during morning on a cold Sunday, I'm guessing because hotel appeared full.Hot breakfast was better than average, coffee was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r447468582-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>447468582</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Very Pleasant staff</t>
+  </si>
+  <si>
+    <t>When we arrived the front desk clerk Diana was absolutely great in getting us checked in very friendly and polite and went out of her way to make us truly feel welcome.The room was very clean and adequate for our stay , the children enjoyed everything about the hotel especially breakfast and the gym. Lovely area to stay would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Tseverson3010, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>When we arrived the front desk clerk Diana was absolutely great in getting us checked in very friendly and polite and went out of her way to make us truly feel welcome.The room was very clean and adequate for our stay , the children enjoyed everything about the hotel especially breakfast and the gym. Lovely area to stay would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r446382960-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>446382960</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Absolutely Amazing!</t>
+  </si>
+  <si>
+    <t>This hotel will be your best decision in this area! My wife called and the desk clerk, Mike, went out of his way to assist us! He provided timely information, held our room and made us feel "at home!" He had already provided snacks and water in our room and a Christmas card as well! This extra customer service is unheard of anymore! We have stayed here before and everything was great! But this time was over the top! We will stay here anytime we're in the area! If I can offer one suggestion, it would be great if the bed wasn't so close to the air conditioner! But, it's not a deal breaker! The staff has been totally awesome! Great job! MoreShow less</t>
+  </si>
+  <si>
+    <t>Tseverson3010, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded December 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2016</t>
+  </si>
+  <si>
+    <t>This hotel will be your best decision in this area! My wife called and the desk clerk, Mike, went out of his way to assist us! He provided timely information, held our room and made us feel "at home!" He had already provided snacks and water in our room and a Christmas card as well! This extra customer service is unheard of anymore! We have stayed here before and everything was great! But this time was over the top! We will stay here anytime we're in the area! If I can offer one suggestion, it would be great if the bed wasn't so close to the air conditioner! But, it's not a deal breaker! The staff has been totally awesome! Great job! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r442694602-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>442694602</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>We happened on to this hotel via Hotwire and found the facility to be clean and comfortable. The staff was pleasant and the breakfast sufficient. The proximity to shopping was most excellent for a traveler. I have read several comments about the smell of cleansers and honestly I believe the smell is the chlorine from the indoor pool, which by the way looked very inviting. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tseverson3010, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>We happened on to this hotel via Hotwire and found the facility to be clean and comfortable. The staff was pleasant and the breakfast sufficient. The proximity to shopping was most excellent for a traveler. I have read several comments about the smell of cleansers and honestly I believe the smell is the chlorine from the indoor pool, which by the way looked very inviting. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r438186877-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>438186877</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Danna Davis deserves a raise!!!!</t>
+  </si>
+  <si>
+    <t>Danna Davis was absolutely amazing. She went above and more than beyond to make our stay as pleasant and welcoming as possible.  My son got married on November 5, 2016 and the wedding party and families stayed at the hotel. Danna kept in constant contact with me up until the day we arrived. Her and her staff were so amazing.  I would recommend this hotel to anyone!!!! We were not familiar with the area at all and the location was close to anything you could imagine.  Very satisfied!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tseverson3010, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Danna Davis was absolutely amazing. She went above and more than beyond to make our stay as pleasant and welcoming as possible.  My son got married on November 5, 2016 and the wedding party and families stayed at the hotel. Danna kept in constant contact with me up until the day we arrived. Her and her staff were so amazing.  I would recommend this hotel to anyone!!!! We were not familiar with the area at all and the location was close to anything you could imagine.  Very satisfied!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r438033726-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>438033726</t>
+  </si>
+  <si>
+    <t>NO NO NO</t>
+  </si>
+  <si>
+    <t>This hotel should not be allowed to continue to use the Marriott brand.  The staff was incompetant, the manager worse.  Wasted hard earned points to stay here when I could have stayed at any motel on the highway and gotten a better experience.  Complained the 1st day that no ice machine in the hotel accessible by guests worked.  Basic shrug.  Saw a review from 2 months previous with the same complaint.  Next day, still not ice machines.  Asked at desk and it was obviously a huge inconvenience for them to get any.  Asked for manager and surprise, not available during my entire stay. Once a Asst Manger did actually say hello when he walked by during the breakfast hour.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Tseverson3010, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>This hotel should not be allowed to continue to use the Marriott brand.  The staff was incompetant, the manager worse.  Wasted hard earned points to stay here when I could have stayed at any motel on the highway and gotten a better experience.  Complained the 1st day that no ice machine in the hotel accessible by guests worked.  Basic shrug.  Saw a review from 2 months previous with the same complaint.  Next day, still not ice machines.  Asked at desk and it was obviously a huge inconvenience for them to get any.  Asked for manager and surprise, not available during my entire stay. Once a Asst Manger did actually say hello when he walked by during the breakfast hour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r435987369-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>435987369</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Always a pleasure</t>
+  </si>
+  <si>
+    <t>If you travel in this area the Fairfield is an awesome place to stay. From the minute we arrive it is a pleasure to be treated so nicely. Michael checked us in and made us feel right at home. Travis the asst GM remembered us from a previous stay and Laura the GM was equally as friendly. Our room was clean and spacious and they added to breakfast menu. The staff here is an asset to MarriottMoreShow less</t>
+  </si>
+  <si>
+    <t>Tseverson3010, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>If you travel in this area the Fairfield is an awesome place to stay. From the minute we arrive it is a pleasure to be treated so nicely. Michael checked us in and made us feel right at home. Travis the asst GM remembered us from a previous stay and Laura the GM was equally as friendly. Our room was clean and spacious and they added to breakfast menu. The staff here is an asset to MarriottMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r435033086-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>435033086</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Nice Room</t>
+  </si>
+  <si>
+    <t>Check in was easy and fast. We arrived late and still had a nice room. A few times I've arrived late and get the room between the ice machine and the elevator not in this hotel. Hotel is hard to fine, there is a large building being built and covers this hotel. They have a dark entrance off the highway so be aware. The breakfast had good choices but they ran out of coffee. I let them know and they were still out 10 minutes later. I would rebook. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tseverson3010, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Check in was easy and fast. We arrived late and still had a nice room. A few times I've arrived late and get the room between the ice machine and the elevator not in this hotel. Hotel is hard to fine, there is a large building being built and covers this hotel. They have a dark entrance off the highway so be aware. The breakfast had good choices but they ran out of coffee. I let them know and they were still out 10 minutes later. I would rebook. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r421067394-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>421067394</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Always made nice by Staff</t>
+  </si>
+  <si>
+    <t>If you need to work in The Woodlands, Texas.... You could not find a better location than the Fairfield Inn just of Highway 242 and interstate 45...they will always be courteous ...You will not just Feel right at home... You will be right at home...❤️MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Tseverson3010, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>If you need to work in The Woodlands, Texas.... You could not find a better location than the Fairfield Inn just of Highway 242 and interstate 45...they will always be courteous ...You will not just Feel right at home... You will be right at home...❤️More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r389118097-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>389118097</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Bee clinic</t>
+  </si>
+  <si>
+    <t>Stayed here for our bee clinic.  Easy on and off.  Close to alot of good restaurants.  Room was comfortable and quiet and clean. Breakfast  was nice.  Staff was friendly.  Price was on the high side.  But I guess because it was on 45.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Tseverson3010, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for our bee clinic.  Easy on and off.  Close to alot of good restaurants.  Room was comfortable and quiet and clean. Breakfast  was nice.  Staff was friendly.  Price was on the high side.  But I guess because it was on 45.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r384988801-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>384988801</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Group event</t>
+  </si>
+  <si>
+    <t>Stayed with our youth choir here in June during our tour.  Excellent service from the front desk.  Rooms were keyed and ready when we arrived - always the sign of a hotel that knows how to host a group.  Great breakfast as well.  Hotel is next door to a great restaurant and Wal Mart shopping is across the street.  Convenient access to I-45.  Will stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed with our youth choir here in June during our tour.  Excellent service from the front desk.  Rooms were keyed and ready when we arrived - always the sign of a hotel that knows how to host a group.  Great breakfast as well.  Hotel is next door to a great restaurant and Wal Mart shopping is across the street.  Convenient access to I-45.  Will stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r384578231-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>384578231</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Not a great value.  Bed was not comfortable.  Breakfast was sub par.  Generally nice property.  Looks fairly new.  Room was clean.  Bathroom nice size, not too small.  Internet adequate.  Convenient to convention/ expo center.  No noise problems the night we were thereMoreShow less</t>
+  </si>
+  <si>
+    <t>Not a great value.  Bed was not comfortable.  Breakfast was sub par.  Generally nice property.  Looks fairly new.  Room was clean.  Bathroom nice size, not too small.  Internet adequate.  Convenient to convention/ expo center.  No noise problems the night we were thereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r375258825-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>375258825</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Good Value, Professional Staff</t>
+  </si>
+  <si>
+    <t>I stayed here the week, using it as a base for Conroe, Woodlands and surrounding areas. It's a great value and the staff is very friendly and helpful.The 1bdrm executive suite was just right. King bed was comfortable and the entire room, bath etc. was very clean. Top floor was a must, and had no complaints of kids running the halls and loud foot traffic in the rooms.With hotels these days especially near freeways where business &amp; family traffic is constant, keeping everything clean is critical. My housekeeping lady was great and made sure I had plenty of fresh towels etc.Both Jonathan and Travis (front desk) were very helpful and made sure I had everything that was needed.The mid-week 5-7pm food sodas &amp; beer was a fresh start to the evening. Breakfasts were very nice for the size of hotel and the morning lady always had fresh items out and kept it “Super Clean”!!Thanks to the staff…A. Springer_VerizonMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Travis S, Front Office Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here the week, using it as a base for Conroe, Woodlands and surrounding areas. It's a great value and the staff is very friendly and helpful.The 1bdrm executive suite was just right. King bed was comfortable and the entire room, bath etc. was very clean. Top floor was a must, and had no complaints of kids running the halls and loud foot traffic in the rooms.With hotels these days especially near freeways where business &amp; family traffic is constant, keeping everything clean is critical. My housekeeping lady was great and made sure I had plenty of fresh towels etc.Both Jonathan and Travis (front desk) were very helpful and made sure I had everything that was needed.The mid-week 5-7pm food sodas &amp; beer was a fresh start to the evening. Breakfasts were very nice for the size of hotel and the morning lady always had fresh items out and kept it “Super Clean”!!Thanks to the staff…A. Springer_VerizonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r370792915-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>370792915</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Good Value, Good Staff</t>
+  </si>
+  <si>
+    <t>We stayed here for a few nights, using it as a base for Houston.  It's a great value and the staff are very friendly and helpful.  The room is a bit small and it's the smallest "king bed" I've been in, but it's clean.  My only real criticism is that the water flowing thru the pipes from above is very loud, I'd recommend you request a room on the fifth floor to avoid that.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for a few nights, using it as a base for Houston.  It's a great value and the staff are very friendly and helpful.  The room is a bit small and it's the smallest "king bed" I've been in, but it's clean.  My only real criticism is that the water flowing thru the pipes from above is very loud, I'd recommend you request a room on the fifth floor to avoid that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r365256357-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>365256357</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Great Night Sleep</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for a family wedding that was being held at Madera Estates. I will say that the beds at this hotel are amazing! Best night sleep I've had in years, and the staff are so sweet!Would totally stay here again if I was in the area or even if I had family needing to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for a family wedding that was being held at Madera Estates. I will say that the beds at this hotel are amazing! Best night sleep I've had in years, and the staff are so sweet!Would totally stay here again if I was in the area or even if I had family needing to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r361594982-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>361594982</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Better than anticipated </t>
+  </si>
+  <si>
+    <t>This is a nice hotel, family oriented, good breakfast, convenient to nearby shops and restaurants. The staff was pleasant. This was a pleasant surprise because there are some under 4 rate reviews out there. Glad we took a chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>This is a nice hotel, family oriented, good breakfast, convenient to nearby shops and restaurants. The staff was pleasant. This was a pleasant surprise because there are some under 4 rate reviews out there. Glad we took a chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r357541973-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>357541973</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>These guys are TOP NOTCH</t>
+  </si>
+  <si>
+    <t>My family and I are here for my daughters funeral. We have been in and out for the last several days. Never once did they fail to welcome us or say good morning, yet keeping 9our situation in mind and I dont they ALL seemed so sympthetic respectful and kind.  They remembered each of us as we came and went (there was 6 people) The staff here is OUTSTANDING!!!! My mom says shes just gonna stay here forever the beds are so comfortable and the pillows!!! OMG shes so impressed with just the pillows.  The Breaksfast is so delicious and the lady who attends teh brkfast bar is on the ball, it stays spotless and all the food stays fresh and warm, if shes not in the back shes welcoming you with a beatuiful smile and a cheerful goodmorning.  I cant say enough about this Hotel, especially in this dark moment for us, it would be so easy to focus on our situation and overlook the efforts of others but not here!!! Somehow they got that special touch, they got it down.  If there were a 10 star rateing I would give it to them...To all the staff here the Nelson and Rhodes family thank you and appreciate you.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I are here for my daughters funeral. We have been in and out for the last several days. Never once did they fail to welcome us or say good morning, yet keeping 9our situation in mind and I dont they ALL seemed so sympthetic respectful and kind.  They remembered each of us as we came and went (there was 6 people) The staff here is OUTSTANDING!!!! My mom says shes just gonna stay here forever the beds are so comfortable and the pillows!!! OMG shes so impressed with just the pillows.  The Breaksfast is so delicious and the lady who attends teh brkfast bar is on the ball, it stays spotless and all the food stays fresh and warm, if shes not in the back shes welcoming you with a beatuiful smile and a cheerful goodmorning.  I cant say enough about this Hotel, especially in this dark moment for us, it would be so easy to focus on our situation and overlook the efforts of others but not here!!! Somehow they got that special touch, they got it down.  If there were a 10 star rateing I would give it to them...To all the staff here the Nelson and Rhodes family thank you and appreciate you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r356666020-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>356666020</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Totally won me over....</t>
+  </si>
+  <si>
+    <t>I have to say, when I arrived at 10:15 on a Sunday night after a hellish journey, to a lackluster welcome and some unsavory (to my mind) people outside, my first thought was "no fricking way am I staying here for four nights."  I booked it because a co-worker said she was staying here as well.  Well, the room was ok, and it seemed like a big hassle to check out. So, I stayed.  And it was good!  Comfy room.  Comfortable bed.  Super quiet.  AND...they serve dinner on Mondays and Wednesdays with free beer and lemonade.  AND...it's a GOOD dinner, handmade by the amazing Virlene.  Take it from a veritable snob - this is such a nice bonus for the business traveler who is sick of going from Red Lobster to whatever...I really, in the end, enjoyed this hotel.  Double queen didn't really have a comfy place to sit and read and put my feet up, so maybe a king next time.  Location is a little dismal, as is all of Conroe, so not remarkable.  I recommend this place, definitely.MoreShow less</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>I have to say, when I arrived at 10:15 on a Sunday night after a hellish journey, to a lackluster welcome and some unsavory (to my mind) people outside, my first thought was "no fricking way am I staying here for four nights."  I booked it because a co-worker said she was staying here as well.  Well, the room was ok, and it seemed like a big hassle to check out. So, I stayed.  And it was good!  Comfy room.  Comfortable bed.  Super quiet.  AND...they serve dinner on Mondays and Wednesdays with free beer and lemonade.  AND...it's a GOOD dinner, handmade by the amazing Virlene.  Take it from a veritable snob - this is such a nice bonus for the business traveler who is sick of going from Red Lobster to whatever...I really, in the end, enjoyed this hotel.  Double queen didn't really have a comfy place to sit and read and put my feet up, so maybe a king next time.  Location is a little dismal, as is all of Conroe, so not remarkable.  I recommend this place, definitely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r342730516-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>342730516</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Welcoming staff, comfortable rooms, and finicky internet</t>
+  </si>
+  <si>
+    <t>As other reviewers have reported, the entrance to this hotel can be a little tricky especially at night. However, once I was parked, I was greeted by an enthusiastic employee at the counter.The room was perfectly suitable with comfortable beds. The climate controls were a little confusing at first as there is a non-functional thermostat on the wall. The only major downside was the internet as it would not connect at night and when it did the next morning, it was painfully slow. Internet aside, the same cheerful counter man was there when I checked out in the morning and he made checkout a quick and painless process.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>As other reviewers have reported, the entrance to this hotel can be a little tricky especially at night. However, once I was parked, I was greeted by an enthusiastic employee at the counter.The room was perfectly suitable with comfortable beds. The climate controls were a little confusing at first as there is a non-functional thermostat on the wall. The only major downside was the internet as it would not connect at night and when it did the next morning, it was painfully slow. Internet aside, the same cheerful counter man was there when I checked out in the morning and he made checkout a quick and painless process.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r340464368-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>340464368</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Outstanding hospitality; difficult location and small room</t>
+  </si>
+  <si>
+    <t>Hotel employees at front desk and breakfast buffet were refreshingly hospitable.  The gentleman working at the front desk one morning came out to the dining area and asked everyone how they were doing (as a group and individually)!  Two drawbacks to the hotel, however....(1) location/exit is easy into hotel is easy to miss, especially at night...a sign would be helpful..(2) I thought my room was very small...the bed seemed to take up 90% of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Hotel employees at front desk and breakfast buffet were refreshingly hospitable.  The gentleman working at the front desk one morning came out to the dining area and asked everyone how they were doing (as a group and individually)!  Two drawbacks to the hotel, however....(1) location/exit is easy into hotel is easy to miss, especially at night...a sign would be helpful..(2) I thought my room was very small...the bed seemed to take up 90% of the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r339761248-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>339761248</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Booking For Group Travel</t>
+  </si>
+  <si>
+    <t>I booked a group travel with this hotel and found the Director of Sales (Tamara Sandford) very helpful. The experience was a delight and we look forward to our stay. Thanks, Tamara!!!  Based on this booking experience, I believe our stay will be fun.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a group travel with this hotel and found the Director of Sales (Tamara Sandford) very helpful. The experience was a delight and we look forward to our stay. Thanks, Tamara!!!  Based on this booking experience, I believe our stay will be fun.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r333121549-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>333121549</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Concert Artists</t>
+  </si>
+  <si>
+    <t>We hosted several artists at our church for a Christmas concert, and were blown away by the customer service we experienced when booking our rooms at Fairfield Inn &amp; Suites in Conroe. Tamara Sandford and Betty Johnson were fabulous to work with. The guests were comfortable in their rooms and pleased with the hotel overall. Everything was clean and fresh looking. The staff went above and beyond to accommodate our needs. We were so grateful with the service at this hotel we will definitely use them again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>We hosted several artists at our church for a Christmas concert, and were blown away by the customer service we experienced when booking our rooms at Fairfield Inn &amp; Suites in Conroe. Tamara Sandford and Betty Johnson were fabulous to work with. The guests were comfortable in their rooms and pleased with the hotel overall. Everything was clean and fresh looking. The staff went above and beyond to accommodate our needs. We were so grateful with the service at this hotel we will definitely use them again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r331595836-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>331595836</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Pleasant staff, great bed......  but....</t>
+  </si>
+  <si>
+    <t>Pleasant staff, great bed......  but....the thermostat did not work sot the room was too warm for good sleep.  The "High Speed Internet".... WRONG!  WiFi is .9 Mb per sec !! And the Ethernet is only 1.9 Mb per sec!!  HORRIBLE !!  7 TV channels also did not work.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded December 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2015</t>
+  </si>
+  <si>
+    <t>Pleasant staff, great bed......  but....the thermostat did not work sot the room was too warm for good sleep.  The "High Speed Internet".... WRONG!  WiFi is .9 Mb per sec !! And the Ethernet is only 1.9 Mb per sec!!  HORRIBLE !!  7 TV channels also did not work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r326730652-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>326730652</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>INCREDIBLE FAMILY REUNION</t>
+  </si>
+  <si>
+    <t>I coordinated a family reunion in Conroe, Texas.  Fairfield Inn and Suites, Conroe hotel coordinator (Tamara) was outstanding and provided superb recommendations and preparations.  One of the family members was required to make multiple changes to her reservation.  All the changes were handled courteously and professionally by the hotel staff.  After arrival, the facilities were in exceptional condition, fully meeting all our needs.  The staff's superb efforts helped make the family reunion an incredible success.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>I coordinated a family reunion in Conroe, Texas.  Fairfield Inn and Suites, Conroe hotel coordinator (Tamara) was outstanding and provided superb recommendations and preparations.  One of the family members was required to make multiple changes to her reservation.  All the changes were handled courteously and professionally by the hotel staff.  After arrival, the facilities were in exceptional condition, fully meeting all our needs.  The staff's superb efforts helped make the family reunion an incredible success.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r321487996-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>321487996</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Great service.  Very nice hotel</t>
+  </si>
+  <si>
+    <t>The hotel is very nice.  Looks new or newly renovated.  We had a small fridge and microwave in the room, so that was kind of nice.  Breakfast in the morning!!  The rooms are pretty standard.  Not luxe, but it's clean.  What stands out the most is the service...just outstanding.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The hotel is very nice.  Looks new or newly renovated.  We had a small fridge and microwave in the room, so that was kind of nice.  Breakfast in the morning!!  The rooms are pretty standard.  Not luxe, but it's clean.  What stands out the most is the service...just outstanding.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r319865733-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>319865733</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Well located with plenty of places to go and eat.  Walmart adjacent.  Service courteous and professional.   Rooms clean and we'll kept and breakfast is good.  Worth the money.  If back in area would select again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Well located with plenty of places to go and eat.  Walmart adjacent.  Service courteous and professional.   Rooms clean and we'll kept and breakfast is good.  Worth the money.  If back in area would select again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r318786918-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>318786918</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>They returned my new IPad!</t>
+  </si>
+  <si>
+    <t>I left my iPad, the housekeeper found it, and it was mailed to me in perfect condition within 3 days.  I'm very thankful and enjoyed my stay very much. The room was clean, everyone was nice, check in and check out were easy, and the location was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>I left my iPad, the housekeeper found it, and it was mailed to me in perfect condition within 3 days.  I'm very thankful and enjoyed my stay very much. The room was clean, everyone was nice, check in and check out were easy, and the location was perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r314550834-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>314550834</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Desk clerks are awesome and made me feel well taken care of. They were helpful when I was in search of food. The accommodations were clean and kept cool. The hotel is accessible and had a refrigerator and microwave in-room.A very nice business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Desk clerks are awesome and made me feel well taken care of. They were helpful when I was in search of food. The accommodations were clean and kept cool. The hotel is accessible and had a refrigerator and microwave in-room.A very nice business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r313906980-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>313906980</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, but very outdated. </t>
+  </si>
+  <si>
+    <t>Check in was a breeze, front desk clerk was super nice. Hotel is definitely outdated; there's a musty smell in the rooms and down the hallway and the carpet should be replaced. The cart to help get your luggage out of the car is straight out of the 70's and the "lock" on the door is just weird..., but all in all the place is clean. I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was a breeze, front desk clerk was super nice. Hotel is definitely outdated; there's a musty smell in the rooms and down the hallway and the carpet should be replaced. The cart to help get your luggage out of the car is straight out of the 70's and the "lock" on the door is just weird..., but all in all the place is clean. I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r313170258-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>313170258</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>What a nice place! On Mondays and Wednesdays there is a social with beer and home made food! Very good stuff! Its close to plenty of restaurants and shopping. Lake Conroe is not too far from this place either.MoreShow less</t>
+  </si>
+  <si>
+    <t>What a nice place! On Mondays and Wednesdays there is a social with beer and home made food! Very good stuff! Its close to plenty of restaurants and shopping. Lake Conroe is not too far from this place either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r307552483-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>307552483</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Wedding party</t>
+  </si>
+  <si>
+    <t>We were in town for a wedding. The hotel was nice and hotel staff were very friendly. My husband said the bed hurt his back...it was a soft mattress. We had a fridge and microwave in the room, it was an executive suite.Other than that, we were impressed. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for a wedding. The hotel was nice and hotel staff were very friendly. My husband said the bed hurt his back...it was a soft mattress. We had a fridge and microwave in the room, it was an executive suite.Other than that, we were impressed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r305497920-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>305497920</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>We were traveling with a large group of adults and kids and the staff was very attentive to our specific needs regarding room assignments. The rooms were very clean and comfortable and the report back from kids and adults was universally positive (especially the Texas shaped waffles at breakfast!)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We were traveling with a large group of adults and kids and the staff was very attentive to our specific needs regarding room assignments. The rooms were very clean and comfortable and the report back from kids and adults was universally positive (especially the Texas shaped waffles at breakfast!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r300279722-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>300279722</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Corvette Trip</t>
+  </si>
+  <si>
+    <t>We booked 21 rooms at the Fairfield and everyone was very pleased with the rooms and the staff.  We were on a Corvette Caravan to visit the Southern Star Brewery and needed a close place to stay after the beer tasting!  The Fairfield exceeded our expectations.  The pool area was very clean and they allowed us to use the breakfast area to have a Pizza party.  The beds and bedding were wonderful.  Breakfast yummy.  We would definitely go back!  The Manager Tamera was very helpful getting us all booked!MoreShow less</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>We booked 21 rooms at the Fairfield and everyone was very pleased with the rooms and the staff.  We were on a Corvette Caravan to visit the Southern Star Brewery and needed a close place to stay after the beer tasting!  The Fairfield exceeded our expectations.  The pool area was very clean and they allowed us to use the breakfast area to have a Pizza party.  The beds and bedding were wonderful.  Breakfast yummy.  We would definitely go back!  The Manager Tamera was very helpful getting us all booked!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r293132086-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>293132086</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel for Business Travelers</t>
+  </si>
+  <si>
+    <t>I've been staying at this hotel for a few years now. It is one of my favorites because the beds are insanely comfortable! The staff is always great and the rooms are always clean. I travel a lot for work, and stay at a LOT of different hotels. This is always my first choice in Conroe.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I've been staying at this hotel for a few years now. It is one of my favorites because the beds are insanely comfortable! The staff is always great and the rooms are always clean. I travel a lot for work, and stay at a LOT of different hotels. This is always my first choice in Conroe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r291775032-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>291775032</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>We arrived July 19 for a two day stay. Our room was clean and quiet. Staff was very nice and helpful.  They offered both breakfast and a simple dinner. Breakfast was good,If you have an option to go out to dinner, do that. If you want to save money then stay for dinner, if you can beat some regulars to the food. All in all I would stay there again.We didn't use pool but it looked small.MoreShow less</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>We arrived July 19 for a two day stay. Our room was clean and quiet. Staff was very nice and helpful.  They offered both breakfast and a simple dinner. Breakfast was good,If you have an option to go out to dinner, do that. If you want to save money then stay for dinner, if you can beat some regulars to the food. All in all I would stay there again.We didn't use pool but it looked small.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r288017173-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>288017173</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, nice town</t>
+  </si>
+  <si>
+    <t>We were on a road trip and stumbled on Conroe, TX.  It's a nice town about a half hour north of Houston. The Fairfield has already been a good name with my family. The hotel was clean and comfortable.  The lady at the desk, I forgot to get her name, was the epitome of southern hospitality.  The breakfast was the fairly typical continental with Texas shaped waffles.I would have given it five stars except the pool was filthy. Black algae and trash.  I emptied the filter skimmer baskets myself. They were plugged to the point that they were more like buckets than strainers. I only hope that this was a big oversight. I would still recommend staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were on a road trip and stumbled on Conroe, TX.  It's a nice town about a half hour north of Houston. The Fairfield has already been a good name with my family. The hotel was clean and comfortable.  The lady at the desk, I forgot to get her name, was the epitome of southern hospitality.  The breakfast was the fairly typical continental with Texas shaped waffles.I would have given it five stars except the pool was filthy. Black algae and trash.  I emptied the filter skimmer baskets myself. They were plugged to the point that they were more like buckets than strainers. I only hope that this was a big oversight. I would still recommend staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r274318304-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>274318304</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Pleasant visit to Conroe and the Woodlands</t>
+  </si>
+  <si>
+    <t>We spent four nights in a fifth floor 2 queen standard room. Everything was as expected, clean, decent wifi, typical breakfast. The only minor complaint was trying to find the entrance when I arrived late at night as the area isn't fully developed and I'm not used to frontage roads that are marked as onramps.  Staff was friendly even though there were some difficult customers at the desk when I arrived.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>TamaraSandford, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>We spent four nights in a fifth floor 2 queen standard room. Everything was as expected, clean, decent wifi, typical breakfast. The only minor complaint was trying to find the entrance when I arrived late at night as the area isn't fully developed and I'm not used to frontage roads that are marked as onramps.  Staff was friendly even though there were some difficult customers at the desk when I arrived.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r270159352-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>270159352</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Track Team Trip</t>
+  </si>
+  <si>
+    <t>Booked this hotel through Tamara for a Regional track meet. We needed enough rooms to sleep 17 people and they did a great job of getting everything arranged in a short amount of time. I was very impressed with the hotel staff, they were very courteous and helpful. The young lady at the front desk was very helpful all weekend long as we were not the only school to stay there. I know it had to have been a hectic weekend for them, but she seemed very calm and collective the entire time. I will definitely use this hotel again if we are in the Conroe area. I suggest this hotel to anyone needing a group stay. The breakfast was ideal as well!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Booked this hotel through Tamara for a Regional track meet. We needed enough rooms to sleep 17 people and they did a great job of getting everything arranged in a short amount of time. I was very impressed with the hotel staff, they were very courteous and helpful. The young lady at the front desk was very helpful all weekend long as we were not the only school to stay there. I know it had to have been a hectic weekend for them, but she seemed very calm and collective the entire time. I will definitely use this hotel again if we are in the Conroe area. I suggest this hotel to anyone needing a group stay. The breakfast was ideal as well!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r267518959-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>267518959</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disgusting. </t>
+  </si>
+  <si>
+    <t>So many ants and spider bites! With the humid air and heat, I feel like I'm in the rainforest. Very limited breakfast options - scrambled eggs, oatmeal packets, frosted flakes, and sad looking packaged fruit.  No high-speed internet is available. The standard internet is too slow to even check email. The business center computer is slow as expected but their outdated software does not work with Dropbox so printing is impossible. Staff is very unfriendly and unhelpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>So many ants and spider bites! With the humid air and heat, I feel like I'm in the rainforest. Very limited breakfast options - scrambled eggs, oatmeal packets, frosted flakes, and sad looking packaged fruit.  No high-speed internet is available. The standard internet is too slow to even check email. The business center computer is slow as expected but their outdated software does not work with Dropbox so printing is impossible. Staff is very unfriendly and unhelpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r261733274-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>261733274</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>CMU Swim &amp; Dive Says YES!!!</t>
+  </si>
+  <si>
+    <t>Our group of 12 ( 9 athletes and 3 coaches) spent 7 days 6 nights while in town competing at the NCAA Division III national championship. Tamara was more than helpful getting us the correct amount of rooms at a great rate. She was extremely friendly and wonderful to work with. I was happy to finally meet her. The rooms were perfect and breakfast worked for what we needed. Lots of tables for lunch and dinner since we carried out a lot. We will be sure to come back in two years when the City of Shenandoah hosts again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Heather C, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Our group of 12 ( 9 athletes and 3 coaches) spent 7 days 6 nights while in town competing at the NCAA Division III national championship. Tamara was more than helpful getting us the correct amount of rooms at a great rate. She was extremely friendly and wonderful to work with. I was happy to finally meet her. The rooms were perfect and breakfast worked for what we needed. Lots of tables for lunch and dinner since we carried out a lot. We will be sure to come back in two years when the City of Shenandoah hosts again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r260764711-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>260764711</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Awesome Staff!!! Very helpful</t>
+  </si>
+  <si>
+    <t>Doing a last minutes travel for a team.  This property rocked it! Thank you Tamara and Betty for making this a successful stay for my team.      Thank you for your service. Kari Carignan SelectHospitality!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather C, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded March 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2015</t>
+  </si>
+  <si>
+    <t>Doing a last minutes travel for a team.  This property rocked it! Thank you Tamara and Betty for making this a successful stay for my team.      Thank you for your service. Kari Carignan SelectHospitality!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r259192609-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>259192609</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Nice stopover hotel</t>
+  </si>
+  <si>
+    <t>We spent one night here. Room was clean , however had to request extra linens for bedding.  Asked for rollaway bed ahead of time, but did not get one. However, I don't know where we would have put one of we did get one. We were traveling during spring break and the hotel was full.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent one night here. Room was clean , however had to request extra linens for bedding.  Asked for rollaway bed ahead of time, but did not get one. However, I don't know where we would have put one of we did get one. We were traveling during spring break and the hotel was full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r249221576-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>249221576</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Room a little SMALL</t>
+  </si>
+  <si>
+    <t>Spent one night 1-21-2015. Room very clean but small, bed takes up the entire room. Had a problem with the toilet. Door key did not work had to get another. Nice selection on TV. Breakfast was good. Total price for one night was $181.00MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Heather C, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Spent one night 1-21-2015. Room very clean but small, bed takes up the entire room. Had a problem with the toilet. Door key did not work had to get another. Nice selection on TV. Breakfast was good. Total price for one night was $181.00More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r245151510-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>245151510</t>
+  </si>
+  <si>
+    <t>12/19/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel.</t>
+  </si>
+  <si>
+    <t>I always stay at The Fairfield Inn whenever I'm traveling, whether it be business or personal. I have stayed at this location on many different occasions and I'm always satisfied. The hotel is very clean and the beds are extremely comfortable. It's usually very quiet throughout the building and I like that it is a non-smoking facility. My clothes don't have that horrible hotel aroma once I leave. Lol.The staff is very friendly. I spent most of my day off the property, so the most memorable part of my stay was breakfast. The breakfast was awesome, and the young lady who prepared it was very nice. Always had a huge smile and a fresh pot of coffee ready to go! My only complaint is that the television in my room didn't work, and the toilet kept running all night long! All in all this is a great place to stay. Thank you for your hospitality Fairfield Inn &amp; Suites Conroe!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I always stay at The Fairfield Inn whenever I'm traveling, whether it be business or personal. I have stayed at this location on many different occasions and I'm always satisfied. The hotel is very clean and the beds are extremely comfortable. It's usually very quiet throughout the building and I like that it is a non-smoking facility. My clothes don't have that horrible hotel aroma once I leave. Lol.The staff is very friendly. I spent most of my day off the property, so the most memorable part of my stay was breakfast. The breakfast was awesome, and the young lady who prepared it was very nice. Always had a huge smile and a fresh pot of coffee ready to go! My only complaint is that the television in my room didn't work, and the toilet kept running all night long! All in all this is a great place to stay. Thank you for your hospitality Fairfield Inn &amp; Suites Conroe!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r243507574-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>243507574</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Stayed here on the way to Galveston to leave on a cruise.  Very pleasant staff, clean lobby, room, bathroom and all facilities.  Good location and breakfast was very good.  If we come this direction, will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather C, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded December 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here on the way to Galveston to leave on a cruise.  Very pleasant staff, clean lobby, room, bathroom and all facilities.  Good location and breakfast was very good.  If we come this direction, will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r238842422-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>238842422</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Nice Wednesday Evening</t>
+  </si>
+  <si>
+    <t>Good location and nice clean room. They host a free happy hour with food and drink Wednesday evening which was an unexpected perk. Friendly staff with weight room and business center. The breakfast was very good also. $30 cheaper than similar motels in the Conroe area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather C, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded November 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2014</t>
+  </si>
+  <si>
+    <t>Good location and nice clean room. They host a free happy hour with food and drink Wednesday evening which was an unexpected perk. Friendly staff with weight room and business center. The breakfast was very good also. $30 cheaper than similar motels in the Conroe area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r238616909-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>238616909</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Great time and great staff</t>
+  </si>
+  <si>
+    <t>We had booked 15 rooms for the family to stay here for my son's wedding.  Tamara really helped us as did all the staff.  It was a great experience and really clean hotel.  Thank you Fairfield Inn Conroe!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We had booked 15 rooms for the family to stay here for my son's wedding.  Tamara really helped us as did all the staff.  It was a great experience and really clean hotel.  Thank you Fairfield Inn Conroe!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r238118018-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>238118018</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Hated the decor, loved the eggs.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for 6 nights at the end of October.  Basically it was very clean, and the staff was friendly.  You get a complimentary breakfast buffet when staying.  I thought they did a really nice job of keeping things refilled, since it was pretty busy.  The scrambled eggs were very good, probably the best we've ever had in that type of setting.  Ruth did a very good job of making those eggs nice and fluffy, delicious!  As for the decor, somehow the orange, green  color scheme with a decidedly Asian Zen-like quality seemed out of place in Texas.  Although my husband told the front desk several times that our TV was not working properly,  no HD and very few channels, it was never fixed.  He wanted to catch Fox Sports on Sunday.  Not available, I guess.  The pool area, although quite nice, was neglected.  We were told the maintenance guy quit or hadn't shown up for days.  Towels were left lying around for days, until we finally reported to the front desk that there was a broken beer bottle on the surrounding area near the pool.  There were no clean towels either. Finally the housekeeping manager, Rita, came to clean up the glass, and bring out some towels.  Good thing some family didn't come with their kids to swim!  All in all the hotel was pretty good, clean and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for 6 nights at the end of October.  Basically it was very clean, and the staff was friendly.  You get a complimentary breakfast buffet when staying.  I thought they did a really nice job of keeping things refilled, since it was pretty busy.  The scrambled eggs were very good, probably the best we've ever had in that type of setting.  Ruth did a very good job of making those eggs nice and fluffy, delicious!  As for the decor, somehow the orange, green  color scheme with a decidedly Asian Zen-like quality seemed out of place in Texas.  Although my husband told the front desk several times that our TV was not working properly,  no HD and very few channels, it was never fixed.  He wanted to catch Fox Sports on Sunday.  Not available, I guess.  The pool area, although quite nice, was neglected.  We were told the maintenance guy quit or hadn't shown up for days.  Towels were left lying around for days, until we finally reported to the front desk that there was a broken beer bottle on the surrounding area near the pool.  There were no clean towels either. Finally the housekeeping manager, Rita, came to clean up the glass, and bring out some towels.  Good thing some family didn't come with their kids to swim!  All in all the hotel was pretty good, clean and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r235878082-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>235878082</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Stay at the Fairfield Inn</t>
+  </si>
+  <si>
+    <t>When in Conroe,  stay here. We stayed 2 consecutive weekends and were graciously accommodated both times. We would've stayed a 3rd consecutive weekend but they were sold out. Beautiful property,  friendly and professional staff,  enjoyable breakfast in a prime location.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Heather C, Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>When in Conroe,  stay here. We stayed 2 consecutive weekends and were graciously accommodated both times. We would've stayed a 3rd consecutive weekend but they were sold out. Beautiful property,  friendly and professional staff,  enjoyable breakfast in a prime location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r228192990-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>228192990</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t>This hotel offers everything a traveler needs, especially a woman traveling alone.  It is safe, well lite parking lot, clean, the most incredible and friendly staff you will ever encounter, nice big rooms and work space. It is centrally located, easy on/off freeway. Lots of restaurants and shopping in close proximity. Only hotel that serves free breakfast that I've seen bring a coffee pot around to refill cups and clean off your table.   The staff makes great use of their time and aren't afraid to serve customers even though it's not required. I would highly recommend. It's a few miles into Houston but it's worth the peace and quiet in the evenings. Beds double sheeted, comfy pillows.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tamarasandford77, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded September 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2014</t>
+  </si>
+  <si>
+    <t>This hotel offers everything a traveler needs, especially a woman traveling alone.  It is safe, well lite parking lot, clean, the most incredible and friendly staff you will ever encounter, nice big rooms and work space. It is centrally located, easy on/off freeway. Lots of restaurants and shopping in close proximity. Only hotel that serves free breakfast that I've seen bring a coffee pot around to refill cups and clean off your table.   The staff makes great use of their time and aren't afraid to serve customers even though it's not required. I would highly recommend. It's a few miles into Houston but it's worth the peace and quiet in the evenings. Beds double sheeted, comfy pillows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r226860936-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>226860936</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Starts with the front desk....she was great! From there is was pretty good. Toilet seat was broken. SOMEBODY should have noticed that! AC went out in the middle of the night.But the bed was really nice. Probably the highlight of my stay. Breakfast was okay. Hotels/Motels are pretty much a place to spend the night and this place was good for that. And I think this property was a little overpriced for a good bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Tamarasandford77, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Starts with the front desk....she was great! From there is was pretty good. Toilet seat was broken. SOMEBODY should have noticed that! AC went out in the middle of the night.But the bed was really nice. Probably the highlight of my stay. Breakfast was okay. Hotels/Motels are pretty much a place to spend the night and this place was good for that. And I think this property was a little overpriced for a good bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r219763755-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>219763755</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Our home away from home!</t>
+  </si>
+  <si>
+    <t>We stay here EVERY TIME we go to Houston to see my husband's neurologist. My husband has Parkinsons and it so comforting to know the treatment we will receive at this hotel. I cannot say enough great things about this hotel and the employees. They bend over backwards to see that all of our needs are met. I have come to know several of the staff members &amp; cannot say enough great things about them. Tamara, director of sales, and Betty, front desk manager are always eager to work with us if we need an extended stay or late check out and make sure we get the best rates available. Jessica &amp; Brenda at the front desk are awesome! They help me out every time with anything we need, even the smallest of things. Ruth who makes sure the complimentary breakfast is a feast, always helps me with a tray to my husband in our room. Ebony, a new member of the kitchen staff, is so sweet &amp; always helpful. I really felt the need to mention these staff members by  name, as they are the ones who make this hotel our home away from home. You can find hotels everywhere in the Houston/Woodlands/Conroe area, but you won't find this kind of service or hospitality. The hotel is always spotless due to their hard working ladies who will work around your schedule to clean the room. We also love the...We stay here EVERY TIME we go to Houston to see my husband's neurologist. My husband has Parkinsons and it so comforting to know the treatment we will receive at this hotel. I cannot say enough great things about this hotel and the employees. They bend over backwards to see that all of our needs are met. I have come to know several of the staff members &amp; cannot say enough great things about them. Tamara, director of sales, and Betty, front desk manager are always eager to work with us if we need an extended stay or late check out and make sure we get the best rates available. Jessica &amp; Brenda at the front desk are awesome! They help me out every time with anything we need, even the smallest of things. Ruth who makes sure the complimentary breakfast is a feast, always helps me with a tray to my husband in our room. Ebony, a new member of the kitchen staff, is so sweet &amp; always helpful. I really felt the need to mention these staff members by  name, as they are the ones who make this hotel our home away from home. You can find hotels everywhere in the Houston/Woodlands/Conroe area, but you won't find this kind of service or hospitality. The hotel is always spotless due to their hard working ladies who will work around your schedule to clean the room. We also love the location. It is far enough away from the heavier traffic in The Woodlands, etc., but also close enough that you can be there in a matter of minutes. There are also several places to shop right there. There is a mall right across the freeway &amp; several retail shops just across the street, not to mention many restaurants, a movie theater, grocery store and emergency care clinics just a few miles away. If you are looking for a hotel that is not in the middle of busy traffic; one that is always spotless; staff members who really care about &amp; see to your needs and make you feel right at home, then this is the place for you! As I stated in the beginning of my review, I cannot say enough GREAT things about the Fairfield Inn &amp; Suites in Conroe. I encourage all travelers coming to this area to stay here. You'll be glad you did!Jan H.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Tamarasandford77, Director of Sales at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2014</t>
+  </si>
+  <si>
+    <t>We stay here EVERY TIME we go to Houston to see my husband's neurologist. My husband has Parkinsons and it so comforting to know the treatment we will receive at this hotel. I cannot say enough great things about this hotel and the employees. They bend over backwards to see that all of our needs are met. I have come to know several of the staff members &amp; cannot say enough great things about them. Tamara, director of sales, and Betty, front desk manager are always eager to work with us if we need an extended stay or late check out and make sure we get the best rates available. Jessica &amp; Brenda at the front desk are awesome! They help me out every time with anything we need, even the smallest of things. Ruth who makes sure the complimentary breakfast is a feast, always helps me with a tray to my husband in our room. Ebony, a new member of the kitchen staff, is so sweet &amp; always helpful. I really felt the need to mention these staff members by  name, as they are the ones who make this hotel our home away from home. You can find hotels everywhere in the Houston/Woodlands/Conroe area, but you won't find this kind of service or hospitality. The hotel is always spotless due to their hard working ladies who will work around your schedule to clean the room. We also love the...We stay here EVERY TIME we go to Houston to see my husband's neurologist. My husband has Parkinsons and it so comforting to know the treatment we will receive at this hotel. I cannot say enough great things about this hotel and the employees. They bend over backwards to see that all of our needs are met. I have come to know several of the staff members &amp; cannot say enough great things about them. Tamara, director of sales, and Betty, front desk manager are always eager to work with us if we need an extended stay or late check out and make sure we get the best rates available. Jessica &amp; Brenda at the front desk are awesome! They help me out every time with anything we need, even the smallest of things. Ruth who makes sure the complimentary breakfast is a feast, always helps me with a tray to my husband in our room. Ebony, a new member of the kitchen staff, is so sweet &amp; always helpful. I really felt the need to mention these staff members by  name, as they are the ones who make this hotel our home away from home. You can find hotels everywhere in the Houston/Woodlands/Conroe area, but you won't find this kind of service or hospitality. The hotel is always spotless due to their hard working ladies who will work around your schedule to clean the room. We also love the location. It is far enough away from the heavier traffic in The Woodlands, etc., but also close enough that you can be there in a matter of minutes. There are also several places to shop right there. There is a mall right across the freeway &amp; several retail shops just across the street, not to mention many restaurants, a movie theater, grocery store and emergency care clinics just a few miles away. If you are looking for a hotel that is not in the middle of busy traffic; one that is always spotless; staff members who really care about &amp; see to your needs and make you feel right at home, then this is the place for you! As I stated in the beginning of my review, I cannot say enough GREAT things about the Fairfield Inn &amp; Suites in Conroe. I encourage all travelers coming to this area to stay here. You'll be glad you did!Jan H.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r218197911-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>218197911</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Newer Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for one night with my husband and son.  This is a newer Fairgield so it is in very good condition.  We stayed in a suite and I appreciated the extra space.  The bed was very comfortable.  The breakfast was pretty typical for a free breakfast -- several cold options along with waffles, eggs and sausage.  The dining room was nice.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for one night with my husband and son.  This is a newer Fairgield so it is in very good condition.  We stayed in a suite and I appreciated the extra space.  The bed was very comfortable.  The breakfast was pretty typical for a free breakfast -- several cold options along with waffles, eggs and sausage.  The dining room was nice.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r216095542-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>216095542</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Gracious Hospitality</t>
+  </si>
+  <si>
+    <t>We stayed at the Fairfield Inn for our daughter's wedding. The hotel blocked approximately 8 rooms for the families involved. As we were having a rehearsal early in the afternoon, the registration desk willingly accommodated the guests by having the rooms a available by 1:00pm. Such a relief to be able to get into the clean, cool rooms and unpack before heading out for a busy afternoon/evening of celebration!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan S, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded July 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at the Fairfield Inn for our daughter's wedding. The hotel blocked approximately 8 rooms for the families involved. As we were having a rehearsal early in the afternoon, the registration desk willingly accommodated the guests by having the rooms a available by 1:00pm. Such a relief to be able to get into the clean, cool rooms and unpack before heading out for a busy afternoon/evening of celebration!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r212654377-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>212654377</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel good location</t>
+  </si>
+  <si>
+    <t>We attended a wedding reception nearby and this hotel was in a very convenient location.  The staff was very friendly and accommodating. Typical Fairfield Inn with free breakfast and wifi that worked well.  The staff made this hotel a good choice, we would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Ryan S, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2014</t>
+  </si>
+  <si>
+    <t>We attended a wedding reception nearby and this hotel was in a very convenient location.  The staff was very friendly and accommodating. Typical Fairfield Inn with free breakfast and wifi that worked well.  The staff made this hotel a good choice, we would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r212515208-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>212515208</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Got in after midnight. Late night staff was very kind and accommodating. We weren't expecting such a comfortable bed. Room was great and smelled like it had just been cleaned. Breakfast staff got a bit overwhelmed and food refills took quite some time. Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Got in after midnight. Late night staff was very kind and accommodating. We weren't expecting such a comfortable bed. Room was great and smelled like it had just been cleaned. Breakfast staff got a bit overwhelmed and food refills took quite some time. Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r212105480-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>212105480</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>Clean, quiet, safe, parking lot well lit.  Shopping mall across the street with plenty of places to eat.  Target and WalMart close by.  Easy access to the interstate.  Good breakfast.  Nice, friendly staff, fair price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, quiet, safe, parking lot well lit.  Shopping mall across the street with plenty of places to eat.  Target and WalMart close by.  Easy access to the interstate.  Good breakfast.  Nice, friendly staff, fair price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r205665231-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>205665231</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Hotel is nice, service...not so much</t>
+  </si>
+  <si>
+    <t>The room was nice, clean and all.  Breakfast was ridiculous, there were so many people trying to get something to eat Saturday morning and the lady was making like 6 patties (which didn't look fully cooked) at a time.  There were no eggs and minimal of the stuff that you could just sit out.  We were not looking forward to breakfast the next morning but Ruth was in the kitchen Sunday morning and she did an awesome job of making sure there was plenty of everything (and it was all cooked).  Aside from the food, Saturday morning there was no hot water...it was crazy.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>The room was nice, clean and all.  Breakfast was ridiculous, there were so many people trying to get something to eat Saturday morning and the lady was making like 6 patties (which didn't look fully cooked) at a time.  There were no eggs and minimal of the stuff that you could just sit out.  We were not looking forward to breakfast the next morning but Ruth was in the kitchen Sunday morning and she did an awesome job of making sure there was plenty of everything (and it was all cooked).  Aside from the food, Saturday morning there was no hot water...it was crazy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r205534137-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>205534137</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>Great Sales Director Tamara</t>
+  </si>
+  <si>
+    <t>I called at the last minute for a room, knowing it was sold out for the weekend due to a convention in Conroe.  I was lucky to get Tamara on the phone.  She said to give her about 12 hours and she could probably do something.True to her word she called me back the next morning with a room for me for two nights.  She was so calm about it, made me truely belive she would keep her word and get back to me and she did!  Can't wait write my review afer my stay.  I know I will be happy as I travel a lot and always try to stay at Fairfield Inns, as they are so roomy and nice.Horse Girl!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I called at the last minute for a room, knowing it was sold out for the weekend due to a convention in Conroe.  I was lucky to get Tamara on the phone.  She said to give her about 12 hours and she could probably do something.True to her word she called me back the next morning with a room for me for two nights.  She was so calm about it, made me truely belive she would keep her word and get back to me and she did!  Can't wait write my review afer my stay.  I know I will be happy as I travel a lot and always try to stay at Fairfield Inns, as they are so roomy and nice.Horse Girl!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r204933940-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>204933940</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>No service!</t>
+  </si>
+  <si>
+    <t>Had non-refundable reservations (1st red flag?) Graduation weekend in Conroe meant that the hotel was full.  Only person was working the desk, no breakfast (as promised,) no coffee, no service.   I would think Marriott would hate hearing about this.  Manager didn't care.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had non-refundable reservations (1st red flag?) Graduation weekend in Conroe meant that the hotel was full.  Only person was working the desk, no breakfast (as promised,) no coffee, no service.   I would think Marriott would hate hearing about this.  Manager didn't care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r200247764-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>200247764</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Quality Service</t>
+  </si>
+  <si>
+    <t>I am the head coach of a Special Olympics team that competes in the Area 6 Spring Games each April which requires a one night stay in a Hotel. My team deserves the best of the best and that is exactly what I found in this Hotel. I have been dealing with Hotels for twenty-nine years and cannot recall ever having such thorough and caring service as provided by this Hotel. Tamara Sandford in group sales went above and beyond her call of duty to ensure my team was well taken care of. My only hope is that next years Spring Games will once again be held in Conroe. If so, we will most definitely be staying at the Fairmont Inn and Suites and highly recommend this Hotel to anyone who believes that quality service is a thing of the past. Gary MortonSealy, TexasMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I am the head coach of a Special Olympics team that competes in the Area 6 Spring Games each April which requires a one night stay in a Hotel. My team deserves the best of the best and that is exactly what I found in this Hotel. I have been dealing with Hotels for twenty-nine years and cannot recall ever having such thorough and caring service as provided by this Hotel. Tamara Sandford in group sales went above and beyond her call of duty to ensure my team was well taken care of. My only hope is that next years Spring Games will once again be held in Conroe. If so, we will most definitely be staying at the Fairmont Inn and Suites and highly recommend this Hotel to anyone who believes that quality service is a thing of the past. Gary MortonSealy, TexasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r199967313-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>199967313</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>Decent Stay</t>
+  </si>
+  <si>
+    <t>I'm normally not harsh on things that are out of the hotels control.  But this is an exception.  Upon check in the pool is closed due to the handle being broke.  Our son was bummed.  There was this kid that kept stalking us, followed us to our room after we checked in, &amp; showed up at breakfast.  FREAKY.  Not to mention the drunk at 2 AM that banged &amp; tried to get in our room.  Thank goodness we always travel with a concealed handgun.  Had to call the front desk, and dude passed out in the hall before she could get there.  Hello security???  Next day upon leaving truck next us had been broken into.  But we were ok. Guess the thieves didn't want the mommy mobile??  I highly doubt I will be back at this hotel.  I didn't feel safe especially traveling with my children.  The room was clean, just wish the hot breakfast didn't start at 7.  We're early risers.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm normally not harsh on things that are out of the hotels control.  But this is an exception.  Upon check in the pool is closed due to the handle being broke.  Our son was bummed.  There was this kid that kept stalking us, followed us to our room after we checked in, &amp; showed up at breakfast.  FREAKY.  Not to mention the drunk at 2 AM that banged &amp; tried to get in our room.  Thank goodness we always travel with a concealed handgun.  Had to call the front desk, and dude passed out in the hall before she could get there.  Hello security???  Next day upon leaving truck next us had been broken into.  But we were ok. Guess the thieves didn't want the mommy mobile??  I highly doubt I will be back at this hotel.  I didn't feel safe especially traveling with my children.  The room was clean, just wish the hot breakfast didn't start at 7.  We're early risers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r199402430-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>199402430</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Clean Clean Clean</t>
+  </si>
+  <si>
+    <t>I have stayed here several time and alwasy very clean and comfortable. Tamara S. books our reservations for us and she is always very helpful and professional. This is our hotel for the project that we are doing in Conroe.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I have stayed here several time and alwasy very clean and comfortable. Tamara S. books our reservations for us and she is always very helpful and professional. This is our hotel for the project that we are doing in Conroe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r195951981-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>195951981</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Great hotel but too humid</t>
+  </si>
+  <si>
+    <t>This was my second stay at this hotel and my review is the same as before.  It's nice, clean, has a great breakfast, friendly staff and great location.  But once again, the hotel is just too humid.  You have to keep your AC running constantly to keep the humidity out of the room.  Even with that, my papers were all damp.  The response to my review last time was that it was due to the scorching summer heat and lack of trees.  (That to me is not a valid excuse since this is Texas.  It's always humid.  They should take that into consideration when building the hotel!)  This time it was overcast and below 70 the whole weekend and the hotel was still humid.  They really need to find a way to deal with the humidity.  If they did, I'd give it a 5 out of 5 stars.  Another reviewer on here commented on the cemetery near the back of the property.  I personally liked it because it was quieter.  I'd rather have a room that looks out over a cemetery than a noisy strip center.All in all, it's still a nice, newer, very clean hotel.  But, if you hate humidity, you may not be as happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This was my second stay at this hotel and my review is the same as before.  It's nice, clean, has a great breakfast, friendly staff and great location.  But once again, the hotel is just too humid.  You have to keep your AC running constantly to keep the humidity out of the room.  Even with that, my papers were all damp.  The response to my review last time was that it was due to the scorching summer heat and lack of trees.  (That to me is not a valid excuse since this is Texas.  It's always humid.  They should take that into consideration when building the hotel!)  This time it was overcast and below 70 the whole weekend and the hotel was still humid.  They really need to find a way to deal with the humidity.  If they did, I'd give it a 5 out of 5 stars.  Another reviewer on here commented on the cemetery near the back of the property.  I personally liked it because it was quieter.  I'd rather have a room that looks out over a cemetery than a noisy strip center.All in all, it's still a nice, newer, very clean hotel.  But, if you hate humidity, you may not be as happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r190978692-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>190978692</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>We had a King Suite for 5 days and was very nice and quiet.  Perfect for a romantic getaway.  Maintenance had to fix lock as we were locked out.  Hotel worked with my Boyfriend to get the perfect room a head of time and get it set up.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Ryan S, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2014</t>
+  </si>
+  <si>
+    <t>We had a King Suite for 5 days and was very nice and quiet.  Perfect for a romantic getaway.  Maintenance had to fix lock as we were locked out.  Hotel worked with my Boyfriend to get the perfect room a head of time and get it set up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r188461245-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>188461245</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>Very nice Hotel with Several amenties for the price!</t>
+  </si>
+  <si>
+    <t>I had a one bedroom suite (very close to same price as a double or king). It was a small suite with a bedroom area, couch, chair, desk and two flat screen TVs.  The layout was very comfortable and the  lighting was great to either watch TV or do work at the desk The bed was extremely comfortable as are most Marriott beds are.  Free internet was a plus.   A microwave and refrig were included and a small touch but a good thought was another microwave by the ice machine with plastic silverware.   There was a nice closet in the bedroom area - not your normal hotel closet - it really was nice and felt like "home".  I received a free item of choice from the market upon check in and the staff was friendly.  I have stayed here multiple times and whenever I am in the area I will definately stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I had a one bedroom suite (very close to same price as a double or king). It was a small suite with a bedroom area, couch, chair, desk and two flat screen TVs.  The layout was very comfortable and the  lighting was great to either watch TV or do work at the desk The bed was extremely comfortable as are most Marriott beds are.  Free internet was a plus.   A microwave and refrig were included and a small touch but a good thought was another microwave by the ice machine with plastic silverware.   There was a nice closet in the bedroom area - not your normal hotel closet - it really was nice and felt like "home".  I received a free item of choice from the market upon check in and the staff was friendly.  I have stayed here multiple times and whenever I am in the area I will definately stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r186246634-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>186246634</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>This review is LONG overdue but I just got around to it.  My son and I stayed here for the entire month of July this year and had a wonderful experience.  Staff was courteous, professional, and always willing to help.  I actually had a reservation at another hotel but after staying their one night, I called this hotel and they took us right in.  Tamara is the best and understood our plight of being from Connecticut, having to stay in Houston for a month, not knowing too much about the area, and wanting to feel "at home" as possible while we were away.  She truly made us feel at home.  This hotel is lucky to have people like her on staff.  Property is clean, free breakfast, nice pool [for those HOT Texas summer days], and a perfect fitness room.  I also like its proximity to pretty much everything; shopping, restaurants, entertainment, etc.  We spent alot of time in The Woodlands and it was a quick 15 minute drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>This review is LONG overdue but I just got around to it.  My son and I stayed here for the entire month of July this year and had a wonderful experience.  Staff was courteous, professional, and always willing to help.  I actually had a reservation at another hotel but after staying their one night, I called this hotel and they took us right in.  Tamara is the best and understood our plight of being from Connecticut, having to stay in Houston for a month, not knowing too much about the area, and wanting to feel "at home" as possible while we were away.  She truly made us feel at home.  This hotel is lucky to have people like her on staff.  Property is clean, free breakfast, nice pool [for those HOT Texas summer days], and a perfect fitness room.  I also like its proximity to pretty much everything; shopping, restaurants, entertainment, etc.  We spent alot of time in The Woodlands and it was a quick 15 minute drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r182266391-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>182266391</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here. If I had to find one drawback it would be the proximity to the cemetery directly behind the hotel. In my case, it worked out well because I had to attend the funeral of a family member at that particular funeral home. If others are staying at the hotel and get the "eeby-jeebys" from seeing a cemetery then stay somewhere else. My stay was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Ryan S, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded November 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2013</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here. If I had to find one drawback it would be the proximity to the cemetery directly behind the hotel. In my case, it worked out well because I had to attend the funeral of a family member at that particular funeral home. If others are staying at the hotel and get the "eeby-jeebys" from seeing a cemetery then stay somewhere else. My stay was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r181833262-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>181833262</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Great for families!</t>
+  </si>
+  <si>
+    <t>We hosted an annual family get-together in Conroe, and we had approx. 15 rooms at this hotel over the weekend.  The rooms were large, clean, and comfy, and the hotel staff was amazing.  For families with kids, this property is great!  Free breakfast for three kids made it a great deal by itself, but the location, staff and rooms just added to it.  Really impressed.  Great value for the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>We hosted an annual family get-together in Conroe, and we had approx. 15 rooms at this hotel over the weekend.  The rooms were large, clean, and comfy, and the hotel staff was amazing.  For families with kids, this property is great!  Free breakfast for three kids made it a great deal by itself, but the location, staff and rooms just added to it.  Really impressed.  Great value for the price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r180998357-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>180998357</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights whilst in Conroe. Located conveniently off the I45. Welcoming friendly staff, with fast check in. Great complimentary snacks and refreshments everyday complimentary from the management in the foyer. Clean modern rooms, comfortable beds. Free fast wifi. Average continental breakfast, which is regularly topped up. Only downside in my opinion is located next to a cemetery, which not everyone would feel comfortable about. Average rooms, excellent staff, fast wifi, convenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan S, Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded November 15, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights whilst in Conroe. Located conveniently off the I45. Welcoming friendly staff, with fast check in. Great complimentary snacks and refreshments everyday complimentary from the management in the foyer. Clean modern rooms, comfortable beds. Free fast wifi. Average continental breakfast, which is regularly topped up. Only downside in my opinion is located next to a cemetery, which not everyone would feel comfortable about. Average rooms, excellent staff, fast wifi, convenient location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r178059063-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>178059063</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel with good breakfast</t>
+  </si>
+  <si>
+    <t>This three year old Fairfield still looks new and is just off the I-45 freeway but no road noise.  Location surrounded with shopping and dining options.  Room was comfortable and the breakfast area bright.  Breakfast included belgian waffles, hard boiled &amp; scrambled eggs, sausage patties, assorted pastries, packaged fruit, yogurt and three cereal choices.  I would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Ryan S, Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2013</t>
+  </si>
+  <si>
+    <t>This three year old Fairfield still looks new and is just off the I-45 freeway but no road noise.  Location surrounded with shopping and dining options.  Room was comfortable and the breakfast area bright.  Breakfast included belgian waffles, hard boiled &amp; scrambled eggs, sausage patties, assorted pastries, packaged fruit, yogurt and three cereal choices.  I would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r177384405-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>177384405</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Helpful staff</t>
+  </si>
+  <si>
+    <t>This is a really nice Fairfield Inn with one of the most helpful staffs I have ever come in contact with. The young lady at the front desk when we checked in was especially helpful with directions and restaurant recommendations. Room was nice, clean and well maintained. We had to leave too early for the breakfast, but the area appeared large enough. We will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a really nice Fairfield Inn with one of the most helpful staffs I have ever come in contact with. The young lady at the front desk when we checked in was especially helpful with directions and restaurant recommendations. Room was nice, clean and well maintained. We had to leave too early for the breakfast, but the area appeared large enough. We will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r175546701-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>175546701</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>New, Nice, Quiet and Convenient</t>
+  </si>
+  <si>
+    <t>Entire hotel was very clean and all the staff was helpful and pleasant. Breakfast was great with lots of options. Kept the food stocked even with multiple large groups staying over the same weekend. Lobby area was nice with lots of seating (and a TV) for groups to have somewhere to hang out. Previous review mentions humidity - this is not true. Aside from sitting by the front doors I never noticed any humidity in the entire hotel. And the A/C was nice and cool everywhere I went. Houston is humid - get over it. The King Suite was nice with comfortable sofa bed, microwave and mini-fridge.  I do wish the Q/Q rooms had a sofa bed or mini-fridge, but they didn't. I would definitely stay here again if in the area. Slept great too. Rooms were nice and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Entire hotel was very clean and all the staff was helpful and pleasant. Breakfast was great with lots of options. Kept the food stocked even with multiple large groups staying over the same weekend. Lobby area was nice with lots of seating (and a TV) for groups to have somewhere to hang out. Previous review mentions humidity - this is not true. Aside from sitting by the front doors I never noticed any humidity in the entire hotel. And the A/C was nice and cool everywhere I went. Houston is humid - get over it. The King Suite was nice with comfortable sofa bed, microwave and mini-fridge.  I do wish the Q/Q rooms had a sofa bed or mini-fridge, but they didn't. I would definitely stay here again if in the area. Slept great too. Rooms were nice and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r175369064-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>175369064</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Newer hotel with convenient location</t>
+  </si>
+  <si>
+    <t>Recently stayed three nights in a suite with my family of three.  Hotel was in great condition with a very friendly staff.  Decent selection for breakfast.  Hotel right off I-45 so easy access to other areas.  Only negative was the size of the suite - a little smaller than most suites but had all amenities necessary.  Overall good value and would recommend to others.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently stayed three nights in a suite with my family of three.  Hotel was in great condition with a very friendly staff.  Decent selection for breakfast.  Hotel right off I-45 so easy access to other areas.  Only negative was the size of the suite - a little smaller than most suites but had all amenities necessary.  Overall good value and would recommend to others.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r169484528-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>169484528</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Nice clean hotel but too humid</t>
+  </si>
+  <si>
+    <t>The staff was friendly and helpful.  The hotel was newer, nice, clean and with comfortable beds and pillows.  The location was good and easy to find.  The morning breakfast was excellent and kept filled.  But, they stop putting out new food at 10:00, when it ends.  If you want to cruise in at 10:00, you get what's left and they won't make more.The only problem I had with this hotel was the humidity.  It was extremely humid in the hallways and in the rooms.  The carpet and beds actually felt damp and you could smell the dampness in the air.  We had to turn the AC down to 68-69 to get the humidity out of the room, but that made us cold.  We spoke to a woman in the elevator who said it was the same way in her room.  They really need to resolve this issue.  If it weren't for the humidity issue, I would have given the hotel an excellent/5 star review.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan S, Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded September 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2013</t>
+  </si>
+  <si>
+    <t>The staff was friendly and helpful.  The hotel was newer, nice, clean and with comfortable beds and pillows.  The location was good and easy to find.  The morning breakfast was excellent and kept filled.  But, they stop putting out new food at 10:00, when it ends.  If you want to cruise in at 10:00, you get what's left and they won't make more.The only problem I had with this hotel was the humidity.  It was extremely humid in the hallways and in the rooms.  The carpet and beds actually felt damp and you could smell the dampness in the air.  We had to turn the AC down to 68-69 to get the humidity out of the room, but that made us cold.  We spoke to a woman in the elevator who said it was the same way in her room.  They really need to resolve this issue.  If it weren't for the humidity issue, I would have given the hotel an excellent/5 star review.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r162842832-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>162842832</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Nice, new hotel</t>
+  </si>
+  <si>
+    <t>I stayed here on business in April for a few days.  I travel frequently for work and prefer to stay at Marriott hotels.  The hotel is newer, which makes it fairly nice.  The rooms were nice and upgraded, but the only thing I didn't like about them is they didn't come with a refrigerator and/or microwave (I think the suites have these automatically).  Fortunately, the front desk was able to provide me with an extra refrigerator they had in stock, but that is something they should consider adding to each room.The bed was comfortable and the room fit my needs.  I was going to use the workout room but didn't have time while I was there, however it looked like some of the equipment was a little newer (compared to most hotels with older equipment).If I have to return to Conroe I will stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I stayed here on business in April for a few days.  I travel frequently for work and prefer to stay at Marriott hotels.  The hotel is newer, which makes it fairly nice.  The rooms were nice and upgraded, but the only thing I didn't like about them is they didn't come with a refrigerator and/or microwave (I think the suites have these automatically).  Fortunately, the front desk was able to provide me with an extra refrigerator they had in stock, but that is something they should consider adding to each room.The bed was comfortable and the room fit my needs.  I was going to use the workout room but didn't have time while I was there, however it looked like some of the equipment was a little newer (compared to most hotels with older equipment).If I have to return to Conroe I will stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r161781696-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>161781696</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Nice, comfortable</t>
+  </si>
+  <si>
+    <t>Stayed three nights on business, good breakfast selection, very clean rooms and facility, quiet at night no disturbances, really good A/C in room.  Was able to get a decent workout in the fitness center each morning. Fitness center had dumbells up to 50lbs, no 25lbs dumbells. Would recommend that the hotel obtain dumbells up to at least 70 lbs, but not that big of a deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Stayed three nights on business, good breakfast selection, very clean rooms and facility, quiet at night no disturbances, really good A/C in room.  Was able to get a decent workout in the fitness center each morning. Fitness center had dumbells up to 50lbs, no 25lbs dumbells. Would recommend that the hotel obtain dumbells up to at least 70 lbs, but not that big of a deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r159649044-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>159649044</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>We stayed for 5 weeks at this hotel. They made our stay so comfortable and at home the entire time. From management(Tamara) to the front desk (Brenda, Amanda and Betty) they made us welcome. The staff kept the hotel clean and our room was wonderful. The breakfast buffet was so filling and had a wide assortment and presented in a caring way to make you feel at home. I would highly recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 5 weeks at this hotel. They made our stay so comfortable and at home the entire time. From management(Tamara) to the front desk (Brenda, Amanda and Betty) they made us welcome. The staff kept the hotel clean and our room was wonderful. The breakfast buffet was so filling and had a wide assortment and presented in a caring way to make you feel at home. I would highly recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r158080761-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>158080761</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Forced into handicapped room</t>
+  </si>
+  <si>
+    <t>Reserved a room.  King non smoking platinum level with Marriott.  Get to hotel late 1:00am.  Handicapped room when none was requested.  Front desk says that's all they have left despite fact I reserved my room weeks in advance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan S, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Reserved a room.  King non smoking platinum level with Marriott.  Get to hotel late 1:00am.  Handicapped room when none was requested.  Front desk says that's all they have left despite fact I reserved my room weeks in advance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r157465694-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>157465694</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>The Perfect Hotel to Stay in Conroe Texas</t>
+  </si>
+  <si>
+    <t>We live in Conroe Texas and we were getting our house remodeled.  There were several nights that we needed to stay in a hotel because of the painting and dust that filled our house. Since we live in the town, we know a good deal about all of the hotels there.   We decided to try The Fairfield Inn because it was new and fairly close to our house.  We also had heard great things about it from our friends.  We also knew that it was in a safe location.  We were so glad that we choose this hotel.  The hotel had modern rooms with bright colors.  It seemed like a happy place to stay!  The front desk staff was helpful and friendly.  The rooms were extremely clean and relaxing.  While we were there, we had to do laundry.  The washers and dryers were easy to use and the room was very welcoming and tidy.  They even had soap and bounce sheets that you could buy there.  The breakfast was delicious with plenty to choose from.  They had fruit, waffles, oatmeal, sausage, eggs, bagels, and more.  They had plenty to drink too.  I hope that we have another chance to stay again at this Fairfield Inn.  I definitely would advise my local friends to stay there!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>We live in Conroe Texas and we were getting our house remodeled.  There were several nights that we needed to stay in a hotel because of the painting and dust that filled our house. Since we live in the town, we know a good deal about all of the hotels there.   We decided to try The Fairfield Inn because it was new and fairly close to our house.  We also had heard great things about it from our friends.  We also knew that it was in a safe location.  We were so glad that we choose this hotel.  The hotel had modern rooms with bright colors.  It seemed like a happy place to stay!  The front desk staff was helpful and friendly.  The rooms were extremely clean and relaxing.  While we were there, we had to do laundry.  The washers and dryers were easy to use and the room was very welcoming and tidy.  They even had soap and bounce sheets that you could buy there.  The breakfast was delicious with plenty to choose from.  They had fruit, waffles, oatmeal, sausage, eggs, bagels, and more.  They had plenty to drink too.  I hope that we have another chance to stay again at this Fairfield Inn.  I definitely would advise my local friends to stay there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r153840678-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>153840678</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Nicest hotel in Conroe.</t>
+  </si>
+  <si>
+    <t>If you find yourself in Conroe and need a place to stay I would recommend this place, especially if you are a Marriott Rewards member.  It's exactly what you would expect from a Fairfield:  clean rooms, speedy check-in, free breakfast, and not much else.  We stayed in February for the Rocky Raccoon 100 held in Huntsville State Park There is no Marriott property in Huntsville so we opted for a slightly longer drive from Conroe.  NOTE:  The drive is only about 10 minutes further but after the race that can seem like forever.  Another reason to stay in Conroe over Huntsville is the proximity of Conroe to Woodlands and their shopping/spa opportunities.  My crew for the race spent their day in the Woodlands mall area shopping and just relaxing during the day.  There is no such opportunity for this in Huntsville.  Bottom line, stay here if you need a place to stay in Conroe/Huntsville area and you are a Marriott Rewards member.  There is nothing wrong with the hotel and it's the typical quality and amenities you'd expect from other Fairfield resorts.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you find yourself in Conroe and need a place to stay I would recommend this place, especially if you are a Marriott Rewards member.  It's exactly what you would expect from a Fairfield:  clean rooms, speedy check-in, free breakfast, and not much else.  We stayed in February for the Rocky Raccoon 100 held in Huntsville State Park There is no Marriott property in Huntsville so we opted for a slightly longer drive from Conroe.  NOTE:  The drive is only about 10 minutes further but after the race that can seem like forever.  Another reason to stay in Conroe over Huntsville is the proximity of Conroe to Woodlands and their shopping/spa opportunities.  My crew for the race spent their day in the Woodlands mall area shopping and just relaxing during the day.  There is no such opportunity for this in Huntsville.  Bottom line, stay here if you need a place to stay in Conroe/Huntsville area and you are a Marriott Rewards member.  There is nothing wrong with the hotel and it's the typical quality and amenities you'd expect from other Fairfield resorts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r144646010-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>144646010</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Good motel</t>
+  </si>
+  <si>
+    <t>I made reservations at this motel actually thinking it was the one in the Woodlands.  When I searched on the internet for Fairfield Inn, The Woodlands, this one came up as #1. I made my reservations (and paid for them to reserve the good price).  When I arrived, I found out it was the wrong one and they wouldn't let me change because I'd already paid for them.  Lesson learned!Having said that, though, the motel was nice.  Nice rooms, very clean.  The motel itself seemed very new and everything was in great shape.  The towels were not to the standard I expected a "marriott" hotel to have.  And the breakfast, although offering a lot, wasn't the best.  Yes, they had the standard fare but I guess I just expected a little more.Yes, I would stay there again if I needed a room in Conroe.  But, I have stayed in the Fairfield Inn in The Woodlands and that's where I'll stay next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Ryan S, Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded November 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2012</t>
+  </si>
+  <si>
+    <t>I made reservations at this motel actually thinking it was the one in the Woodlands.  When I searched on the internet for Fairfield Inn, The Woodlands, this one came up as #1. I made my reservations (and paid for them to reserve the good price).  When I arrived, I found out it was the wrong one and they wouldn't let me change because I'd already paid for them.  Lesson learned!Having said that, though, the motel was nice.  Nice rooms, very clean.  The motel itself seemed very new and everything was in great shape.  The towels were not to the standard I expected a "marriott" hotel to have.  And the breakfast, although offering a lot, wasn't the best.  Yes, they had the standard fare but I guess I just expected a little more.Yes, I would stay there again if I needed a room in Conroe.  But, I have stayed in the Fairfield Inn in The Woodlands and that's where I'll stay next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r144218883-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>144218883</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>Nicest place north of Houston</t>
+  </si>
+  <si>
+    <t>When arranging accomodations for our non-profit group for Special Needs children, I was delighted to meet your Sales and Marketing Director, Tamara Sandford.    I cannot say enough good aout this wonderful lady.   She not only opened the hotel doors as well as her heart for our Special Needs staff, she made us feel welcome and happy to be here.    Not many places have that "welcome home" attitude, but the staff here in Conroe exuded it with every comment.   I not only made arrangements for our staff to stay here, but made a new friend too.   How cool! Because of this delightful lady and her very pleasant staff, and because this hotel is immaculate and so comfortable, I have made up my mind that I will stay at a Fairfield Inn wherever I travel.   Our staff feels the same as well.    Our "Challenge Air for Kids and Friends" organization travels all throughout the United States hosting flying events for special needs children, and you can be sure the Fairfield Inn will be our preferred accomodation wherever possible!    Thank you Tamara and Thank you Fairfield Inns for having such a professional and delightful staff at your facilities!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Ryan S, Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded November 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2012</t>
+  </si>
+  <si>
+    <t>When arranging accomodations for our non-profit group for Special Needs children, I was delighted to meet your Sales and Marketing Director, Tamara Sandford.    I cannot say enough good aout this wonderful lady.   She not only opened the hotel doors as well as her heart for our Special Needs staff, she made us feel welcome and happy to be here.    Not many places have that "welcome home" attitude, but the staff here in Conroe exuded it with every comment.   I not only made arrangements for our staff to stay here, but made a new friend too.   How cool! Because of this delightful lady and her very pleasant staff, and because this hotel is immaculate and so comfortable, I have made up my mind that I will stay at a Fairfield Inn wherever I travel.   Our staff feels the same as well.    Our "Challenge Air for Kids and Friends" organization travels all throughout the United States hosting flying events for special needs children, and you can be sure the Fairfield Inn will be our preferred accomodation wherever possible!    Thank you Tamara and Thank you Fairfield Inns for having such a professional and delightful staff at your facilities!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r143909972-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>143909972</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>A Great Pick!</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here. My family was displaced by a fire so we stayed for about 2 1/2 weeks. The staff is very friendly and the hotel is very clean. The price is great for the environment...new/modern hotel. The walls must be very thick because I never heard my neighbors. Amanda at the front desk is great and Ruth who prepares/cleans the breakfast area is super friendly. I really felt at home here. The only reason we left is because we needed a room with a kitchenette. I would HIGHLY recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here. My family was displaced by a fire so we stayed for about 2 1/2 weeks. The staff is very friendly and the hotel is very clean. The price is great for the environment...new/modern hotel. The walls must be very thick because I never heard my neighbors. Amanda at the front desk is great and Ruth who prepares/cleans the breakfast area is super friendly. I really felt at home here. The only reason we left is because we needed a room with a kitchenette. I would HIGHLY recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r136335793-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>136335793</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>Great location in North side of Houston. Clean and  up to date. Exit 90 is closed  on ONrth I 45, get off on exit 89. appears to be a new propery or well cared far. This chain has proven to be good at  all locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Ryan S, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded January 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2013</t>
+  </si>
+  <si>
+    <t>Great location in North side of Houston. Clean and  up to date. Exit 90 is closed  on ONrth I 45, get off on exit 89. appears to be a new propery or well cared far. This chain has proven to be good at  all locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r132769063-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>132769063</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Nice stay for a quick trip</t>
+  </si>
+  <si>
+    <t>We were in town for a funeral and this was a great choice. The hotel is fairly new and still felt very clean and fresh.  They even put our rooms together without asking.  Breakfast was decent and the kids loved the make-your-own-Texas-shaped waffles.   The only wierd thing was that the hallways had no (limited?) air conditioning.  The a/c in the rooms more than made up for it! We would stay here again, but hopefully, not for a funeral.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Ryan S, General Manager at Fairfield Inn &amp; Suites Houston Conroe Near The Woodlands, responded to this reviewResponded January 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2013</t>
+  </si>
+  <si>
+    <t>We were in town for a funeral and this was a great choice. The hotel is fairly new and still felt very clean and fresh.  They even put our rooms together without asking.  Breakfast was decent and the kids loved the make-your-own-Texas-shaped waffles.   The only wierd thing was that the hallways had no (limited?) air conditioning.  The a/c in the rooms more than made up for it! We would stay here again, but hopefully, not for a funeral.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r132120956-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>132120956</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable</t>
+  </si>
+  <si>
+    <t>Was just a random pick when driving south on 45 Rooms were spacious and very clean, beds very comfortable and appreciated the free InternetBreakfast was weak just not goodOverall I would say this is a good hotel but I don't think I can justify the $110 per night + taxes they were demanding.  If I wasn't absolutely exhausted at the time I would've kept driving to south Houston but if you have to stay up in the Woodlands I would say this was one of the better hotels off I-45MoreShow less</t>
+  </si>
+  <si>
+    <t>Was just a random pick when driving south on 45 Rooms were spacious and very clean, beds very comfortable and appreciated the free InternetBreakfast was weak just not goodOverall I would say this is a good hotel but I don't think I can justify the $110 per night + taxes they were demanding.  If I wasn't absolutely exhausted at the time I would've kept driving to south Houston but if you have to stay up in the Woodlands I would say this was one of the better hotels off I-45More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r129578214-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>129578214</t>
+  </si>
+  <si>
+    <t>05/08/2012</t>
+  </si>
+  <si>
+    <t>Best Fairfield stay!</t>
+  </si>
+  <si>
+    <t>Great property. This hotel is newer, and sits back off 45 a good way, I had a room facing the highway, &amp; no noise issues. There is a bank next door, shops &amp; restaurants are a long walk (short drive) across a field. Traffic is not an issue. Room was great, best nights sleep in a hotel. Mattress and pillows were awesome! Interior is very inviting, corridors are well-insulated. Fitness room had ample equipment. Breakfast had great selection. Wonderful stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r119376624-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>119376624</t>
+  </si>
+  <si>
+    <t>10/16/2011</t>
+  </si>
+  <si>
+    <t>Re: nice &amp; clean place for the price and locale of Willis, Tx</t>
+  </si>
+  <si>
+    <t>Just a great choice for me.  Being in Texas by myself and having a lot of choices this one worked out best... it seemed newer and was really clean.  The breakfast was one of the better i have had a this type of hotel.  And the lady that took care of all -- gosh, i wish i asked her name, was just so caring of everyone... and it was really clean!  Anyway she alone made my stay... just to see her in action care taking those that needed it and offering to help even when it was not asked for... she saw a need and jumped to help.  Maybe that's what they call Texan Hospitality... but, she seemed to really be true in her care... just lovely.
+As a comparison i stayed at a Comfort Inn &amp; Suites off the 45 and at FM 1960 neaar The Woodlands -- yeah it was cheaper -- but, man i would have paid the extra $30 bucks to stay at the Farfield again.  Oh yeah -- pls do not stay at this Comfort Inn ... it was really dissapointing, cheap sheets like sand paper and the carpet had that carpet deoderizer in it... smelled to high hell -- yuck!
+Oh for the Fairfield -- do indeed price check and get the applicable discounts as they will definitely try to get by the higher rate from you.  AAA was a good rate.
+Again --...Just a great choice for me.  Being in Texas by myself and having a lot of choices this one worked out best... it seemed newer and was really clean.  The breakfast was one of the better i have had a this type of hotel.  And the lady that took care of all -- gosh, i wish i asked her name, was just so caring of everyone... and it was really clean!  Anyway she alone made my stay... just to see her in action care taking those that needed it and offering to help even when it was not asked for... she saw a need and jumped to help.  Maybe that's what they call Texan Hospitality... but, she seemed to really be true in her care... just lovely.As a comparison i stayed at a Comfort Inn &amp; Suites off the 45 and at FM 1960 neaar The Woodlands -- yeah it was cheaper -- but, man i would have paid the extra $30 bucks to stay at the Farfield again.  Oh yeah -- pls do not stay at this Comfort Inn ... it was really dissapointing, cheap sheets like sand paper and the carpet had that carpet deoderizer in it... smelled to high hell -- yuck!Oh for the Fairfield -- do indeed price check and get the applicable discounts as they will definitely try to get by the higher rate from you.  AAA was a good rate.Again -- to have a perspective on me and my opinion -- i have stayed in dumps, stayed in the best, flown first to Europe and not so First... the Fairfiled here was just perfect for the location and my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Just a great choice for me.  Being in Texas by myself and having a lot of choices this one worked out best... it seemed newer and was really clean.  The breakfast was one of the better i have had a this type of hotel.  And the lady that took care of all -- gosh, i wish i asked her name, was just so caring of everyone... and it was really clean!  Anyway she alone made my stay... just to see her in action care taking those that needed it and offering to help even when it was not asked for... she saw a need and jumped to help.  Maybe that's what they call Texan Hospitality... but, she seemed to really be true in her care... just lovely.
+As a comparison i stayed at a Comfort Inn &amp; Suites off the 45 and at FM 1960 neaar The Woodlands -- yeah it was cheaper -- but, man i would have paid the extra $30 bucks to stay at the Farfield again.  Oh yeah -- pls do not stay at this Comfort Inn ... it was really dissapointing, cheap sheets like sand paper and the carpet had that carpet deoderizer in it... smelled to high hell -- yuck!
+Oh for the Fairfield -- do indeed price check and get the applicable discounts as they will definitely try to get by the higher rate from you.  AAA was a good rate.
+Again --...Just a great choice for me.  Being in Texas by myself and having a lot of choices this one worked out best... it seemed newer and was really clean.  The breakfast was one of the better i have had a this type of hotel.  And the lady that took care of all -- gosh, i wish i asked her name, was just so caring of everyone... and it was really clean!  Anyway she alone made my stay... just to see her in action care taking those that needed it and offering to help even when it was not asked for... she saw a need and jumped to help.  Maybe that's what they call Texan Hospitality... but, she seemed to really be true in her care... just lovely.As a comparison i stayed at a Comfort Inn &amp; Suites off the 45 and at FM 1960 neaar The Woodlands -- yeah it was cheaper -- but, man i would have paid the extra $30 bucks to stay at the Farfield again.  Oh yeah -- pls do not stay at this Comfort Inn ... it was really dissapointing, cheap sheets like sand paper and the carpet had that carpet deoderizer in it... smelled to high hell -- yuck!Oh for the Fairfield -- do indeed price check and get the applicable discounts as they will definitely try to get by the higher rate from you.  AAA was a good rate.Again -- to have a perspective on me and my opinion -- i have stayed in dumps, stayed in the best, flown first to Europe and not so First... the Fairfiled here was just perfect for the location and my needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r119124014-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>119124014</t>
+  </si>
+  <si>
+    <t>10/09/2011</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, great!</t>
+  </si>
+  <si>
+    <t>What a nice place! The room was very clean. The staff was very friendly. We're still talking about the beds!! I haven't slept that well in a long time. Would definately stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r95436176-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>95436176</t>
+  </si>
+  <si>
+    <t>02/03/2011</t>
+  </si>
+  <si>
+    <t>Wonderful Brand New Hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is brand new and everything about it was great! I stayed one night because I was in a wedding in the area. I slept soooo well! Didn't hear anyone else and I'm pretty sure there were people all around us partying since we were in the wedding block. I didn't try the breakfast but the coffee was good! Beds were very comfortable too. I would definitely recommend this hotel to friends.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r82842588-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>82842588</t>
+  </si>
+  <si>
+    <t>10/10/2010</t>
+  </si>
+  <si>
+    <t>Outstanding Value - Exceptionally Clean</t>
+  </si>
+  <si>
+    <t>Thirty employees of our company stayed at the Fairfield Inn in Conroe Texas between October 3 and October 8 to attend a series of meetings. The staff could not be nicer and the rooms were exceptionally clean. We will definitely use this facility for future business and personal stays.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d1724203-r75689991-Fairfield_Inn_Suites_Houston_Conroe_Near_The_Woodlands-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>75689991</t>
+  </si>
+  <si>
+    <t>08/17/2010</t>
+  </si>
+  <si>
+    <t>Fantastic hotel!  Couldn't ask for more!</t>
+  </si>
+  <si>
+    <t>We chose this hotel for our family and daughter's wedding guests due to it's close proximity to the church and reception.  I was a little skeptical since this was a brand new hotel, but Marriott has never let me down.  The hotel was beautiful and the service was incredible.  There wasn't a single employee that didn't smile and ask us about our stay or our day.  Not even a frantic mother of the bride, who bothered the staff constantly with room changes, could keep the friendliness and smiles from this staff.  They handled everything with the utmost professionalism. I highly recommend this hotel for your next stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We chose this hotel for our family and daughter's wedding guests due to it's close proximity to the church and reception.  I was a little skeptical since this was a brand new hotel, but Marriott has never let me down.  The hotel was beautiful and the service was incredible.  There wasn't a single employee that didn't smile and ask us about our stay or our day.  Not even a frantic mother of the bride, who bothered the staff constantly with room changes, could keep the friendliness and smiles from this staff.  They handled everything with the utmost professionalism. I highly recommend this hotel for your next stay in the area.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2839,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2871,6888 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>108</v>
+      </c>
+      <c r="X11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>108</v>
+      </c>
+      <c r="X12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>130</v>
+      </c>
+      <c r="X14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>171</v>
+      </c>
+      <c r="X19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>187</v>
+      </c>
+      <c r="X21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>205</v>
+      </c>
+      <c r="X23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>205</v>
+      </c>
+      <c r="X24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>205</v>
+      </c>
+      <c r="X25" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>226</v>
+      </c>
+      <c r="X26" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>226</v>
+      </c>
+      <c r="X27" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>240</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>241</v>
+      </c>
+      <c r="X28" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X30" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>264</v>
+      </c>
+      <c r="X31" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>108</v>
+      </c>
+      <c r="X32" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>279</v>
+      </c>
+      <c r="X33" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>279</v>
+      </c>
+      <c r="X34" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J35" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" t="s">
+        <v>292</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>294</v>
+      </c>
+      <c r="X35" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>302</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>303</v>
+      </c>
+      <c r="X36" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>307</v>
+      </c>
+      <c r="J37" t="s">
+        <v>308</v>
+      </c>
+      <c r="K37" t="s">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>311</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>312</v>
+      </c>
+      <c r="X37" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>320</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>312</v>
+      </c>
+      <c r="X38" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>323</v>
+      </c>
+      <c r="J39" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" t="s">
+        <v>325</v>
+      </c>
+      <c r="L39" t="s">
+        <v>326</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>312</v>
+      </c>
+      <c r="X39" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" t="s">
+        <v>332</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>320</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>312</v>
+      </c>
+      <c r="X40" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>302</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>339</v>
+      </c>
+      <c r="X41" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" t="s">
+        <v>344</v>
+      </c>
+      <c r="K42" t="s">
+        <v>345</v>
+      </c>
+      <c r="L42" t="s">
+        <v>346</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>302</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>339</v>
+      </c>
+      <c r="X42" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" t="s">
+        <v>351</v>
+      </c>
+      <c r="L43" t="s">
+        <v>352</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>302</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>339</v>
+      </c>
+      <c r="X43" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>355</v>
+      </c>
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s">
+        <v>357</v>
+      </c>
+      <c r="L44" t="s">
+        <v>358</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>302</v>
+      </c>
+      <c r="O44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>339</v>
+      </c>
+      <c r="X44" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>360</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>361</v>
+      </c>
+      <c r="J45" t="s">
+        <v>362</v>
+      </c>
+      <c r="K45" t="s">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s">
+        <v>364</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>365</v>
+      </c>
+      <c r="O45" t="s">
+        <v>366</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>339</v>
+      </c>
+      <c r="X45" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>368</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>369</v>
+      </c>
+      <c r="J46" t="s">
+        <v>370</v>
+      </c>
+      <c r="K46" t="s">
+        <v>371</v>
+      </c>
+      <c r="L46" t="s">
+        <v>372</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>365</v>
+      </c>
+      <c r="O46" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>373</v>
+      </c>
+      <c r="X46" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>377</v>
+      </c>
+      <c r="J47" t="s">
+        <v>378</v>
+      </c>
+      <c r="K47" t="s">
+        <v>379</v>
+      </c>
+      <c r="L47" t="s">
+        <v>380</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>381</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>373</v>
+      </c>
+      <c r="X47" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>381</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>388</v>
+      </c>
+      <c r="X48" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>391</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>392</v>
+      </c>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+      <c r="K49" t="s">
+        <v>394</v>
+      </c>
+      <c r="L49" t="s">
+        <v>395</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>381</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>388</v>
+      </c>
+      <c r="X49" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>397</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>398</v>
+      </c>
+      <c r="J50" t="s">
+        <v>399</v>
+      </c>
+      <c r="K50" t="s">
+        <v>400</v>
+      </c>
+      <c r="L50" t="s">
+        <v>401</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>402</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>403</v>
+      </c>
+      <c r="X50" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>406</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>407</v>
+      </c>
+      <c r="J51" t="s">
+        <v>408</v>
+      </c>
+      <c r="K51" t="s">
+        <v>409</v>
+      </c>
+      <c r="L51" t="s">
+        <v>410</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>411</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>403</v>
+      </c>
+      <c r="X51" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>414</v>
+      </c>
+      <c r="J52" t="s">
+        <v>415</v>
+      </c>
+      <c r="K52" t="s">
+        <v>416</v>
+      </c>
+      <c r="L52" t="s">
+        <v>417</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>411</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>403</v>
+      </c>
+      <c r="X52" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>420</v>
+      </c>
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>425</v>
+      </c>
+      <c r="X53" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>428</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>429</v>
+      </c>
+      <c r="J54" t="s">
+        <v>430</v>
+      </c>
+      <c r="K54" t="s">
+        <v>431</v>
+      </c>
+      <c r="L54" t="s">
+        <v>432</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>424</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>433</v>
+      </c>
+      <c r="X54" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>436</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>437</v>
+      </c>
+      <c r="J55" t="s">
+        <v>438</v>
+      </c>
+      <c r="K55" t="s">
+        <v>439</v>
+      </c>
+      <c r="L55" t="s">
+        <v>440</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>433</v>
+      </c>
+      <c r="X55" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>442</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>443</v>
+      </c>
+      <c r="J56" t="s">
+        <v>444</v>
+      </c>
+      <c r="K56" t="s">
+        <v>445</v>
+      </c>
+      <c r="L56" t="s">
+        <v>446</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>447</v>
+      </c>
+      <c r="O56" t="s">
+        <v>448</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>449</v>
+      </c>
+      <c r="X56" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>452</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>453</v>
+      </c>
+      <c r="J57" t="s">
+        <v>454</v>
+      </c>
+      <c r="K57" t="s">
+        <v>455</v>
+      </c>
+      <c r="L57" t="s">
+        <v>456</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>457</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>449</v>
+      </c>
+      <c r="X57" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>459</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>460</v>
+      </c>
+      <c r="J58" t="s">
+        <v>461</v>
+      </c>
+      <c r="K58" t="s">
+        <v>351</v>
+      </c>
+      <c r="L58" t="s">
+        <v>462</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>457</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>463</v>
+      </c>
+      <c r="X58" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>466</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>467</v>
+      </c>
+      <c r="J59" t="s">
+        <v>468</v>
+      </c>
+      <c r="K59" t="s">
+        <v>469</v>
+      </c>
+      <c r="L59" t="s">
+        <v>470</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>457</v>
+      </c>
+      <c r="O59" t="s">
+        <v>366</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>471</v>
+      </c>
+      <c r="X59" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>475</v>
+      </c>
+      <c r="J60" t="s">
+        <v>476</v>
+      </c>
+      <c r="K60" t="s">
+        <v>477</v>
+      </c>
+      <c r="L60" t="s">
+        <v>478</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>479</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>471</v>
+      </c>
+      <c r="X60" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>481</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>482</v>
+      </c>
+      <c r="J61" t="s">
+        <v>483</v>
+      </c>
+      <c r="K61" t="s">
+        <v>484</v>
+      </c>
+      <c r="L61" t="s">
+        <v>485</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>479</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>471</v>
+      </c>
+      <c r="X61" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>487</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>488</v>
+      </c>
+      <c r="J62" t="s">
+        <v>489</v>
+      </c>
+      <c r="K62" t="s">
+        <v>490</v>
+      </c>
+      <c r="L62" t="s">
+        <v>491</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>492</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>493</v>
+      </c>
+      <c r="X62" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>496</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>497</v>
+      </c>
+      <c r="J63" t="s">
+        <v>498</v>
+      </c>
+      <c r="K63" t="s">
+        <v>499</v>
+      </c>
+      <c r="L63" t="s">
+        <v>500</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>492</v>
+      </c>
+      <c r="O63" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>501</v>
+      </c>
+      <c r="X63" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>504</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>505</v>
+      </c>
+      <c r="J64" t="s">
+        <v>506</v>
+      </c>
+      <c r="K64" t="s">
+        <v>507</v>
+      </c>
+      <c r="L64" t="s">
+        <v>508</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>509</v>
+      </c>
+      <c r="O64" t="s">
+        <v>448</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>510</v>
+      </c>
+      <c r="X64" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>513</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>514</v>
+      </c>
+      <c r="J65" t="s">
+        <v>515</v>
+      </c>
+      <c r="K65" t="s">
+        <v>516</v>
+      </c>
+      <c r="L65" t="s">
+        <v>517</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>518</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>519</v>
+      </c>
+      <c r="X65" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>522</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>523</v>
+      </c>
+      <c r="J66" t="s">
+        <v>524</v>
+      </c>
+      <c r="K66" t="s">
+        <v>525</v>
+      </c>
+      <c r="L66" t="s">
+        <v>526</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>518</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>519</v>
+      </c>
+      <c r="X66" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>528</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>529</v>
+      </c>
+      <c r="J67" t="s">
+        <v>530</v>
+      </c>
+      <c r="K67" t="s">
+        <v>531</v>
+      </c>
+      <c r="L67" t="s">
+        <v>532</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>533</v>
+      </c>
+      <c r="X67" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>536</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>537</v>
+      </c>
+      <c r="J68" t="s">
+        <v>538</v>
+      </c>
+      <c r="K68" t="s">
+        <v>539</v>
+      </c>
+      <c r="L68" t="s">
+        <v>540</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>541</v>
+      </c>
+      <c r="O68" t="s">
+        <v>366</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>542</v>
+      </c>
+      <c r="X68" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>545</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>546</v>
+      </c>
+      <c r="J69" t="s">
+        <v>547</v>
+      </c>
+      <c r="K69" t="s">
+        <v>548</v>
+      </c>
+      <c r="L69" t="s">
+        <v>549</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>542</v>
+      </c>
+      <c r="X69" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>551</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>552</v>
+      </c>
+      <c r="J70" t="s">
+        <v>553</v>
+      </c>
+      <c r="K70" t="s">
+        <v>554</v>
+      </c>
+      <c r="L70" t="s">
+        <v>555</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>541</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>542</v>
+      </c>
+      <c r="X70" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>557</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>558</v>
+      </c>
+      <c r="J71" t="s">
+        <v>559</v>
+      </c>
+      <c r="K71" t="s">
+        <v>560</v>
+      </c>
+      <c r="L71" t="s">
+        <v>561</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>562</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>542</v>
+      </c>
+      <c r="X71" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>564</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>565</v>
+      </c>
+      <c r="J72" t="s">
+        <v>566</v>
+      </c>
+      <c r="K72" t="s">
+        <v>567</v>
+      </c>
+      <c r="L72" t="s">
+        <v>568</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>562</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>542</v>
+      </c>
+      <c r="X72" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>570</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>571</v>
+      </c>
+      <c r="J73" t="s">
+        <v>572</v>
+      </c>
+      <c r="K73" t="s">
+        <v>573</v>
+      </c>
+      <c r="L73" t="s">
+        <v>574</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>562</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>542</v>
+      </c>
+      <c r="X73" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>576</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>577</v>
+      </c>
+      <c r="J74" t="s">
+        <v>578</v>
+      </c>
+      <c r="K74" t="s">
+        <v>579</v>
+      </c>
+      <c r="L74" t="s">
+        <v>580</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>581</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>542</v>
+      </c>
+      <c r="X74" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>583</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>584</v>
+      </c>
+      <c r="J75" t="s">
+        <v>585</v>
+      </c>
+      <c r="K75" t="s">
+        <v>586</v>
+      </c>
+      <c r="L75" t="s">
+        <v>587</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>542</v>
+      </c>
+      <c r="X75" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>589</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>590</v>
+      </c>
+      <c r="J76" t="s">
+        <v>591</v>
+      </c>
+      <c r="K76" t="s">
+        <v>592</v>
+      </c>
+      <c r="L76" t="s">
+        <v>593</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>594</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>542</v>
+      </c>
+      <c r="X76" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>596</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>597</v>
+      </c>
+      <c r="J77" t="s">
+        <v>598</v>
+      </c>
+      <c r="K77" t="s">
+        <v>599</v>
+      </c>
+      <c r="L77" t="s">
+        <v>600</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>601</v>
+      </c>
+      <c r="O77" t="s">
+        <v>366</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>542</v>
+      </c>
+      <c r="X77" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>603</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>604</v>
+      </c>
+      <c r="J78" t="s">
+        <v>605</v>
+      </c>
+      <c r="K78" t="s">
+        <v>606</v>
+      </c>
+      <c r="L78" t="s">
+        <v>607</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>608</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>609</v>
+      </c>
+      <c r="X78" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>612</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>613</v>
+      </c>
+      <c r="J79" t="s">
+        <v>614</v>
+      </c>
+      <c r="K79" t="s">
+        <v>615</v>
+      </c>
+      <c r="L79" t="s">
+        <v>616</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>617</v>
+      </c>
+      <c r="O79" t="s">
+        <v>448</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>609</v>
+      </c>
+      <c r="X79" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>619</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>620</v>
+      </c>
+      <c r="J80" t="s">
+        <v>621</v>
+      </c>
+      <c r="K80" t="s">
+        <v>622</v>
+      </c>
+      <c r="L80" t="s">
+        <v>623</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>624</v>
+      </c>
+      <c r="O80" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>609</v>
+      </c>
+      <c r="X80" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>626</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>627</v>
+      </c>
+      <c r="J81" t="s">
+        <v>628</v>
+      </c>
+      <c r="K81" t="s">
+        <v>629</v>
+      </c>
+      <c r="L81" t="s">
+        <v>630</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>631</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>632</v>
+      </c>
+      <c r="X81" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>635</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>636</v>
+      </c>
+      <c r="J82" t="s">
+        <v>637</v>
+      </c>
+      <c r="K82" t="s">
+        <v>638</v>
+      </c>
+      <c r="L82" t="s">
+        <v>639</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>631</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>632</v>
+      </c>
+      <c r="X82" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>641</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>642</v>
+      </c>
+      <c r="J83" t="s">
+        <v>643</v>
+      </c>
+      <c r="K83" t="s">
+        <v>606</v>
+      </c>
+      <c r="L83" t="s">
+        <v>644</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>631</v>
+      </c>
+      <c r="O83" t="s">
+        <v>59</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>645</v>
+      </c>
+      <c r="X83" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>648</v>
+      </c>
+      <c r="J84" t="s">
+        <v>649</v>
+      </c>
+      <c r="K84" t="s">
+        <v>650</v>
+      </c>
+      <c r="L84" t="s">
+        <v>651</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>652</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>653</v>
+      </c>
+      <c r="X84" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>656</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>657</v>
+      </c>
+      <c r="J85" t="s">
+        <v>658</v>
+      </c>
+      <c r="K85" t="s">
+        <v>659</v>
+      </c>
+      <c r="L85" t="s">
+        <v>660</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>652</v>
+      </c>
+      <c r="O85" t="s">
+        <v>65</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>653</v>
+      </c>
+      <c r="X85" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>662</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>663</v>
+      </c>
+      <c r="J86" t="s">
+        <v>664</v>
+      </c>
+      <c r="K86" t="s">
+        <v>665</v>
+      </c>
+      <c r="L86" t="s">
+        <v>666</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>667</v>
+      </c>
+      <c r="O86" t="s">
+        <v>366</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>653</v>
+      </c>
+      <c r="X86" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>669</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>670</v>
+      </c>
+      <c r="J87" t="s">
+        <v>671</v>
+      </c>
+      <c r="K87" t="s">
+        <v>672</v>
+      </c>
+      <c r="L87" t="s">
+        <v>673</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>653</v>
+      </c>
+      <c r="X87" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>675</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>676</v>
+      </c>
+      <c r="J88" t="s">
+        <v>677</v>
+      </c>
+      <c r="K88" t="s">
+        <v>678</v>
+      </c>
+      <c r="L88" t="s">
+        <v>679</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>624</v>
+      </c>
+      <c r="O88" t="s">
+        <v>366</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>680</v>
+      </c>
+      <c r="X88" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>683</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>684</v>
+      </c>
+      <c r="J89" t="s">
+        <v>685</v>
+      </c>
+      <c r="K89" t="s">
+        <v>686</v>
+      </c>
+      <c r="L89" t="s">
+        <v>687</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>688</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>680</v>
+      </c>
+      <c r="X89" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>690</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>691</v>
+      </c>
+      <c r="J90" t="s">
+        <v>692</v>
+      </c>
+      <c r="K90" t="s">
+        <v>693</v>
+      </c>
+      <c r="L90" t="s">
+        <v>694</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>695</v>
+      </c>
+      <c r="O90" t="s">
+        <v>59</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>680</v>
+      </c>
+      <c r="X90" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>697</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>698</v>
+      </c>
+      <c r="J91" t="s">
+        <v>699</v>
+      </c>
+      <c r="K91" t="s">
+        <v>700</v>
+      </c>
+      <c r="L91" t="s">
+        <v>701</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>688</v>
+      </c>
+      <c r="O91" t="s">
+        <v>65</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>680</v>
+      </c>
+      <c r="X91" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>703</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>704</v>
+      </c>
+      <c r="J92" t="s">
+        <v>705</v>
+      </c>
+      <c r="K92" t="s">
+        <v>706</v>
+      </c>
+      <c r="L92" t="s">
+        <v>707</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>708</v>
+      </c>
+      <c r="X92" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>711</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>712</v>
+      </c>
+      <c r="J93" t="s">
+        <v>713</v>
+      </c>
+      <c r="K93" t="s">
+        <v>714</v>
+      </c>
+      <c r="L93" t="s">
+        <v>715</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>716</v>
+      </c>
+      <c r="O93" t="s">
+        <v>65</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>708</v>
+      </c>
+      <c r="X93" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>718</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>719</v>
+      </c>
+      <c r="J94" t="s">
+        <v>720</v>
+      </c>
+      <c r="K94" t="s">
+        <v>721</v>
+      </c>
+      <c r="L94" t="s">
+        <v>722</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>716</v>
+      </c>
+      <c r="O94" t="s">
+        <v>65</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>708</v>
+      </c>
+      <c r="X94" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>724</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>725</v>
+      </c>
+      <c r="J95" t="s">
+        <v>726</v>
+      </c>
+      <c r="K95" t="s">
+        <v>727</v>
+      </c>
+      <c r="L95" t="s">
+        <v>728</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>729</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>730</v>
+      </c>
+      <c r="X95" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>733</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>734</v>
+      </c>
+      <c r="J96" t="s">
+        <v>735</v>
+      </c>
+      <c r="K96" t="s">
+        <v>736</v>
+      </c>
+      <c r="L96" t="s">
+        <v>737</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>738</v>
+      </c>
+      <c r="O96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>739</v>
+      </c>
+      <c r="X96" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>742</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>743</v>
+      </c>
+      <c r="J97" t="s">
+        <v>744</v>
+      </c>
+      <c r="K97" t="s">
+        <v>745</v>
+      </c>
+      <c r="L97" t="s">
+        <v>746</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>729</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>730</v>
+      </c>
+      <c r="X97" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>748</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>749</v>
+      </c>
+      <c r="J98" t="s">
+        <v>750</v>
+      </c>
+      <c r="K98" t="s">
+        <v>751</v>
+      </c>
+      <c r="L98" t="s">
+        <v>752</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>753</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>754</v>
+      </c>
+      <c r="X98" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>757</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>758</v>
+      </c>
+      <c r="J99" t="s">
+        <v>759</v>
+      </c>
+      <c r="K99" t="s">
+        <v>760</v>
+      </c>
+      <c r="L99" t="s">
+        <v>761</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>762</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>763</v>
+      </c>
+      <c r="X99" t="s">
+        <v>764</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>766</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>767</v>
+      </c>
+      <c r="J100" t="s">
+        <v>768</v>
+      </c>
+      <c r="K100" t="s">
+        <v>769</v>
+      </c>
+      <c r="L100" t="s">
+        <v>770</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>763</v>
+      </c>
+      <c r="X100" t="s">
+        <v>764</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>772</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>773</v>
+      </c>
+      <c r="J101" t="s">
+        <v>774</v>
+      </c>
+      <c r="K101" t="s">
+        <v>775</v>
+      </c>
+      <c r="L101" t="s">
+        <v>776</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>777</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>778</v>
+      </c>
+      <c r="J102" t="s">
+        <v>779</v>
+      </c>
+      <c r="K102" t="s">
+        <v>780</v>
+      </c>
+      <c r="L102" t="s">
+        <v>781</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>782</v>
+      </c>
+      <c r="O102" t="s">
+        <v>448</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>784</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>785</v>
+      </c>
+      <c r="J103" t="s">
+        <v>786</v>
+      </c>
+      <c r="K103" t="s">
+        <v>787</v>
+      </c>
+      <c r="L103" t="s">
+        <v>788</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>782</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>789</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>790</v>
+      </c>
+      <c r="J104" t="s">
+        <v>791</v>
+      </c>
+      <c r="K104" t="s">
+        <v>792</v>
+      </c>
+      <c r="L104" t="s">
+        <v>793</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>794</v>
+      </c>
+      <c r="O104" t="s">
+        <v>366</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>795</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>796</v>
+      </c>
+      <c r="J105" t="s">
+        <v>797</v>
+      </c>
+      <c r="K105" t="s">
+        <v>798</v>
+      </c>
+      <c r="L105" t="s">
+        <v>799</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>800</v>
+      </c>
+      <c r="O105" t="s">
+        <v>59</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>60299</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>801</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>802</v>
+      </c>
+      <c r="J106" t="s">
+        <v>803</v>
+      </c>
+      <c r="K106" t="s">
+        <v>804</v>
+      </c>
+      <c r="L106" t="s">
+        <v>805</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>806</v>
+      </c>
+      <c r="O106" t="s">
+        <v>65</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
